--- a/meetings_dumped/jourova_cabinet.xlsx
+++ b/meetings_dumped/jourova_cabinet.xlsx
@@ -6657,7 +6657,7 @@
     <row r="3">
       <c r="A3" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera, Zuzana Dorazilova, Simona Constantin</t>
+          <t>Alvaro De Elera, Simona Constantin, Zuzana Dorazilova</t>
         </is>
       </c>
       <c r="B3" s="2033" t="inlineStr">
@@ -6792,7 +6792,7 @@
     <row r="8">
       <c r="A8" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera</t>
+          <t>Daniel Braun, Marie Frenay</t>
         </is>
       </c>
       <c r="B8" s="2033" t="inlineStr">
@@ -6807,19 +6807,19 @@
       </c>
       <c r="D8" s="2036" t="inlineStr">
         <is>
-          <t>Covington &amp; Burling LLP</t>
+          <t>ZDF Europabüro Brüssel, EBU-UER (European Broadcasting Union)</t>
         </is>
       </c>
       <c r="E8" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> info on Russian frozen assets for Ukraine's reconstruction</t>
+          <t xml:space="preserve"> European Media Freedom Act</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Marie Frenay</t>
+          <t>Alvaro De Elera</t>
         </is>
       </c>
       <c r="B9" s="2033" t="inlineStr">
@@ -6834,12 +6834,12 @@
       </c>
       <c r="D9" s="2036" t="inlineStr">
         <is>
-          <t>ZDF Europabüro Brüssel, EBU-UER (European Broadcasting Union)</t>
+          <t>Covington &amp; Burling LLP</t>
         </is>
       </c>
       <c r="E9" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Media Freedom Act</t>
+          <t xml:space="preserve"> info on Russian frozen assets for Ukraine's reconstruction</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
     <row r="19">
       <c r="A19" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin, Marie Frenay</t>
+          <t>Marie Frenay, Simona Constantin</t>
         </is>
       </c>
       <c r="B19" s="2033" t="inlineStr">
@@ -7494,7 +7494,7 @@
     <row r="34">
       <c r="A34" s="2036" t="inlineStr">
         <is>
-          <t>Eduard Hulicius</t>
+          <t>Simona Constantin</t>
         </is>
       </c>
       <c r="B34" s="2033" t="inlineStr">
@@ -7509,19 +7509,19 @@
       </c>
       <c r="D34" s="2036" t="inlineStr">
         <is>
-          <t>European Democracy Consulting</t>
+          <t>European Roundtable on Climate Change and Sustainable Transition</t>
         </is>
       </c>
       <c r="E34" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU Political parties</t>
+          <t xml:space="preserve"> Sustainable Corporate Governance</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin</t>
+          <t>Eduard Hulicius</t>
         </is>
       </c>
       <c r="B35" s="2033" t="inlineStr">
@@ -7536,12 +7536,12 @@
       </c>
       <c r="D35" s="2036" t="inlineStr">
         <is>
-          <t>European Roundtable on Climate Change and Sustainable Transition</t>
+          <t>European Democracy Consulting</t>
         </is>
       </c>
       <c r="E35" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable Corporate Governance</t>
+          <t xml:space="preserve"> EU Political parties</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
     <row r="40">
       <c r="A40" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B40" s="2033" t="inlineStr">
@@ -7667,24 +7667,24 @@
       </c>
       <c r="C40" s="2036" t="inlineStr">
         <is>
-          <t>Video-conference call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D40" s="2036" t="inlineStr">
         <is>
-          <t>Trans-Atlantic Parliamentary Group</t>
+          <t>GLOBSEC</t>
         </is>
       </c>
       <c r="E40" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qatar gate/transparency matters </t>
+          <t xml:space="preserve"> Disinformation</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Alvaro De Elera</t>
         </is>
       </c>
       <c r="B41" s="2033" t="inlineStr">
@@ -7694,17 +7694,17 @@
       </c>
       <c r="C41" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Video-conference call</t>
         </is>
       </c>
       <c r="D41" s="2036" t="inlineStr">
         <is>
-          <t>GLOBSEC</t>
+          <t>Trans-Atlantic Parliamentary Group</t>
         </is>
       </c>
       <c r="E41" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Disinformation</t>
+          <t xml:space="preserve"> Qatar gate/transparency matters </t>
         </is>
       </c>
     </row>
@@ -7792,58 +7792,58 @@
     <row r="45">
       <c r="A45" s="2036" t="inlineStr">
         <is>
+          <t>Marie Frenay</t>
+        </is>
+      </c>
+      <c r="B45" s="2033" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="C45" s="2036" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D45" s="2036" t="inlineStr">
+        <is>
+          <t>Schibsted ASA</t>
+        </is>
+      </c>
+      <c r="E45" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> European Media Freedom Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2036" t="inlineStr">
+        <is>
           <t>Zuzana Dorazilova</t>
         </is>
       </c>
-      <c r="B45" s="2033" t="inlineStr">
+      <c r="B46" s="2033" t="inlineStr">
         <is>
           <t>15/12/2022</t>
         </is>
       </c>
-      <c r="C45" s="2036" t="inlineStr">
+      <c r="C46" s="2036" t="inlineStr">
         <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="D45" s="2036" t="inlineStr">
+      <c r="D46" s="2036" t="inlineStr">
         <is>
           <t>Center for Reproductive Rights, Inc.</t>
         </is>
       </c>
-      <c r="E45" s="2036" t="inlineStr">
+      <c r="E46" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve"> Support of victims of gender based violence
 </t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2036" t="inlineStr">
-        <is>
-          <t>Marie Frenay</t>
-        </is>
-      </c>
-      <c r="B46" s="2033" t="inlineStr">
-        <is>
-          <t>15/12/2022</t>
-        </is>
-      </c>
-      <c r="C46" s="2036" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D46" s="2036" t="inlineStr">
-        <is>
-          <t>Schibsted ASA</t>
-        </is>
-      </c>
-      <c r="E46" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> European Media Freedom Act</t>
-        </is>
-      </c>
-    </row>
     <row r="47">
       <c r="A47" s="2036" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
     <row r="48">
       <c r="A48" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera, Wojtek Talko, Simona Constantin</t>
+          <t>Wojtek Talko, Simona Constantin, Alvaro De Elera</t>
         </is>
       </c>
       <c r="B48" s="2033" t="inlineStr">
@@ -8149,7 +8149,7 @@
     <row r="58">
       <c r="A58" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Alvaro De Elera</t>
         </is>
       </c>
       <c r="B58" s="2033" t="inlineStr">
@@ -8159,12 +8159,12 @@
       </c>
       <c r="C58" s="2036" t="inlineStr">
         <is>
-          <t>videoconference call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D58" s="2036" t="inlineStr">
         <is>
-          <t>Academy of European Law</t>
+          <t>World Justice Project</t>
         </is>
       </c>
       <c r="E58" s="2036" t="inlineStr">
@@ -8203,7 +8203,7 @@
     <row r="60">
       <c r="A60" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B60" s="2033" t="inlineStr">
@@ -8213,12 +8213,12 @@
       </c>
       <c r="C60" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>videoconference call</t>
         </is>
       </c>
       <c r="D60" s="2036" t="inlineStr">
         <is>
-          <t>World Justice Project</t>
+          <t>Academy of European Law</t>
         </is>
       </c>
       <c r="E60" s="2036" t="inlineStr">
@@ -8380,12 +8380,12 @@
       </c>
       <c r="D66" s="2036" t="inlineStr">
         <is>
-          <t>STEM Ústav empirických výzkumů, z.ú.</t>
+          <t>European Union of Jewish Students</t>
         </is>
       </c>
       <c r="E66" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Opinion polls, communication of EU topics</t>
+          <t xml:space="preserve"> Antisemitism</t>
         </is>
       </c>
     </row>
@@ -8407,12 +8407,12 @@
       </c>
       <c r="D67" s="2036" t="inlineStr">
         <is>
-          <t>Open Society European Policy Institute</t>
+          <t>STEM Ústav empirických výzkumů, z.ú.</t>
         </is>
       </c>
       <c r="E67" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Democracy Action Plan</t>
+          <t xml:space="preserve"> Opinion polls, communication of EU topics</t>
         </is>
       </c>
     </row>
@@ -8434,12 +8434,12 @@
       </c>
       <c r="D68" s="2036" t="inlineStr">
         <is>
-          <t>European Union of Jewish Students</t>
+          <t>Open Society European Policy Institute</t>
         </is>
       </c>
       <c r="E68" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Antisemitism</t>
+          <t xml:space="preserve"> European Democracy Action Plan</t>
         </is>
       </c>
     </row>
@@ -8515,12 +8515,12 @@
       </c>
       <c r="D71" s="2036" t="inlineStr">
         <is>
-          <t>Stiftung Familienunternehmen und Politik</t>
+          <t>EBU-UER (European Broadcasting Union)</t>
         </is>
       </c>
       <c r="E71" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital agenda</t>
+          <t xml:space="preserve"> European Media Freedom Act</t>
         </is>
       </c>
     </row>
@@ -8542,19 +8542,19 @@
       </c>
       <c r="D72" s="2036" t="inlineStr">
         <is>
-          <t>EBU-UER (European Broadcasting Union)</t>
+          <t>Stiftung Familienunternehmen und Politik</t>
         </is>
       </c>
       <c r="E72" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Media Freedom Act</t>
+          <t xml:space="preserve"> Digital agenda</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B73" s="2033" t="inlineStr">
@@ -8564,24 +8564,24 @@
       </c>
       <c r="C73" s="2036" t="inlineStr">
         <is>
-          <t>videoconference call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D73" s="2036" t="inlineStr">
         <is>
-          <t>Committee to Protect Journalists</t>
+          <t>Altana Technologies, Inc.</t>
         </is>
       </c>
       <c r="E73" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Protection of journalists, recent developments in Greece</t>
+          <t xml:space="preserve"> EU-wide legislation on supply chain due diligence</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B74" s="2033" t="inlineStr">
@@ -8591,24 +8591,24 @@
       </c>
       <c r="C74" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>videoconference call</t>
         </is>
       </c>
       <c r="D74" s="2036" t="inlineStr">
         <is>
-          <t>Altana Technologies, Inc.</t>
+          <t>Committee to Protect Journalists</t>
         </is>
       </c>
       <c r="E74" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU-wide legislation on supply chain due diligence</t>
+          <t xml:space="preserve"> Protection of journalists, recent developments in Greece</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B75" s="2033" t="inlineStr">
@@ -8618,17 +8618,17 @@
       </c>
       <c r="C75" s="2036" t="inlineStr">
         <is>
-          <t>videoconference call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D75" s="2036" t="inlineStr">
         <is>
-          <t>EU DisinfoLab</t>
+          <t>Progressive Policy Institute</t>
         </is>
       </c>
       <c r="E75" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Disinformation</t>
+          <t xml:space="preserve"> Media</t>
         </is>
       </c>
     </row>
@@ -8662,7 +8662,7 @@
     <row r="77">
       <c r="A77" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Wojtek Talko</t>
         </is>
       </c>
       <c r="B77" s="2033" t="inlineStr">
@@ -8677,19 +8677,19 @@
       </c>
       <c r="D77" s="2036" t="inlineStr">
         <is>
-          <t>Telefonica, S.A.</t>
+          <t>Kreab</t>
         </is>
       </c>
       <c r="E77" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital issues</t>
+          <t xml:space="preserve"> Political advertising</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B78" s="2033" t="inlineStr">
@@ -8699,24 +8699,24 @@
       </c>
       <c r="C78" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>videoconference call</t>
         </is>
       </c>
       <c r="D78" s="2036" t="inlineStr">
         <is>
-          <t>Progressive Policy Institute</t>
+          <t>EU DisinfoLab</t>
         </is>
       </c>
       <c r="E78" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Media</t>
+          <t xml:space="preserve"> Disinformation</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B79" s="2033" t="inlineStr">
@@ -8731,12 +8731,12 @@
       </c>
       <c r="D79" s="2036" t="inlineStr">
         <is>
-          <t>Kreab</t>
+          <t>Telefonica, S.A.</t>
         </is>
       </c>
       <c r="E79" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Political advertising</t>
+          <t xml:space="preserve"> Digital issues</t>
         </is>
       </c>
     </row>
@@ -8880,86 +8880,86 @@
     <row r="85">
       <c r="A85" s="2036" t="inlineStr">
         <is>
+          <t>Simona Constantin</t>
+        </is>
+      </c>
+      <c r="B85" s="2033" t="inlineStr">
+        <is>
+          <t>06/09/2022</t>
+        </is>
+      </c>
+      <c r="C85" s="2036" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D85" s="2036" t="inlineStr">
+        <is>
+          <t>Schwarz Unternehmenskommunikation International GmbH</t>
+        </is>
+      </c>
+      <c r="E85" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rule of law and the impact on the European Single Market,  Due Diligence and corporate responsibility in (global) supply chains, Data Protection / Privacy Shield
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2036" t="inlineStr">
+        <is>
           <t>Renate Nikolay</t>
         </is>
       </c>
-      <c r="B85" s="2033" t="inlineStr">
+      <c r="B86" s="2033" t="inlineStr">
         <is>
           <t>06/09/2022</t>
         </is>
       </c>
-      <c r="C85" s="2036" t="inlineStr">
+      <c r="C86" s="2036" t="inlineStr">
         <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="D85" s="2036" t="inlineStr">
+      <c r="D86" s="2036" t="inlineStr">
+        <is>
+          <t>Deutscher Richterbund, Bund der Richterinnen und Richter, Staatsanwältinnen und Staatsanwälte</t>
+        </is>
+      </c>
+      <c r="E86" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rule of Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2036" t="inlineStr">
+        <is>
+          <t>Renate Nikolay</t>
+        </is>
+      </c>
+      <c r="B87" s="2033" t="inlineStr">
+        <is>
+          <t>06/09/2022</t>
+        </is>
+      </c>
+      <c r="C87" s="2036" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D87" s="2036" t="inlineStr">
         <is>
           <t>Bundesverband der Deutschen Industrie e.V.</t>
         </is>
       </c>
-      <c r="E85" s="2036" t="inlineStr">
+      <c r="E87" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve"> Due diligence 
 </t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2036" t="inlineStr">
-        <is>
-          <t>Simona Constantin</t>
-        </is>
-      </c>
-      <c r="B86" s="2033" t="inlineStr">
-        <is>
-          <t>06/09/2022</t>
-        </is>
-      </c>
-      <c r="C86" s="2036" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D86" s="2036" t="inlineStr">
-        <is>
-          <t>Schwarz Unternehmenskommunikation International GmbH</t>
-        </is>
-      </c>
-      <c r="E86" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rule of law and the impact on the European Single Market,  Due Diligence and corporate responsibility in (global) supply chains, Data Protection / Privacy Shield
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2036" t="inlineStr">
-        <is>
-          <t>Renate Nikolay</t>
-        </is>
-      </c>
-      <c r="B87" s="2033" t="inlineStr">
-        <is>
-          <t>06/09/2022</t>
-        </is>
-      </c>
-      <c r="C87" s="2036" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D87" s="2036" t="inlineStr">
-        <is>
-          <t>Deutscher Richterbund, Bund der Richterinnen und Richter, Staatsanwältinnen und Staatsanwälte</t>
-        </is>
-      </c>
-      <c r="E87" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Rule of Law</t>
-        </is>
-      </c>
-    </row>
     <row r="88">
       <c r="A88" s="2036" t="inlineStr">
         <is>
@@ -9028,12 +9028,12 @@
       </c>
       <c r="C90" s="2036" t="inlineStr">
         <is>
-          <t>conference call</t>
+          <t>videoconference call</t>
         </is>
       </c>
       <c r="D90" s="2036" t="inlineStr">
         <is>
-          <t>Association of Commercial Television and Video on Demand Services in Europe</t>
+          <t>News Media Europe</t>
         </is>
       </c>
       <c r="E90" s="2036" t="inlineStr">
@@ -9055,12 +9055,12 @@
       </c>
       <c r="C91" s="2036" t="inlineStr">
         <is>
-          <t>videoconference call</t>
+          <t>conference call</t>
         </is>
       </c>
       <c r="D91" s="2036" t="inlineStr">
         <is>
-          <t>News Media Europe</t>
+          <t>Association of Commercial Television and Video on Demand Services in Europe</t>
         </is>
       </c>
       <c r="E91" s="2036" t="inlineStr">
@@ -10229,12 +10229,12 @@
       </c>
       <c r="D134" s="2036" t="inlineStr">
         <is>
-          <t>European Newspaper Publishers' Association, European Magazine Media Association</t>
+          <t>European Federation of Journalists</t>
         </is>
       </c>
       <c r="E134" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EMFA</t>
+          <t xml:space="preserve"> Protection of Jouronalists, disinformation</t>
         </is>
       </c>
     </row>
@@ -10256,12 +10256,12 @@
       </c>
       <c r="D135" s="2036" t="inlineStr">
         <is>
-          <t>European Federation of Journalists</t>
+          <t>European Newspaper Publishers' Association, European Magazine Media Association</t>
         </is>
       </c>
       <c r="E135" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Protection of Jouronalists, disinformation</t>
+          <t xml:space="preserve"> EMFA</t>
         </is>
       </c>
     </row>
@@ -10310,43 +10310,43 @@
       </c>
       <c r="D137" s="2036" t="inlineStr">
         <is>
+          <t>Deutsche Industrie- und Handelskammer</t>
+        </is>
+      </c>
+      <c r="E137" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Due diligence </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2036" t="inlineStr">
+        <is>
+          <t>Renate Nikolay</t>
+        </is>
+      </c>
+      <c r="B138" s="2033" t="inlineStr">
+        <is>
+          <t>27/04/2022</t>
+        </is>
+      </c>
+      <c r="C138" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D138" s="2036" t="inlineStr">
+        <is>
           <t>Bundesverband der Deutschen Industrie e.V.</t>
         </is>
       </c>
-      <c r="E137" s="2036" t="inlineStr">
+      <c r="E138" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Due diligence, collective redress, privacy shield 
 </t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2036" t="inlineStr">
-        <is>
-          <t>Renate Nikolay</t>
-        </is>
-      </c>
-      <c r="B138" s="2033" t="inlineStr">
-        <is>
-          <t>27/04/2022</t>
-        </is>
-      </c>
-      <c r="C138" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D138" s="2036" t="inlineStr">
-        <is>
-          <t>Deutsche Industrie- und Handelskammer</t>
-        </is>
-      </c>
-      <c r="E138" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Due diligence </t>
-        </is>
-      </c>
-    </row>
     <row r="139">
       <c r="A139" s="2036" t="inlineStr">
         <is>
@@ -10525,17 +10525,18 @@
       </c>
       <c r="C145" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D145" s="2036" t="inlineStr">
         <is>
-          <t>World Leadership Alliance-Club de Madrid</t>
+          <t>Cercle des Réseaux européens</t>
         </is>
       </c>
       <c r="E145" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COFE</t>
+          <t xml:space="preserve">Sustainable Corporate Governance, data economy 
+</t>
         </is>
       </c>
     </row>
@@ -10552,25 +10553,24 @@
       </c>
       <c r="C146" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D146" s="2036" t="inlineStr">
         <is>
-          <t>Cercle des Réseaux européens</t>
+          <t>World Leadership Alliance-Club de Madrid</t>
         </is>
       </c>
       <c r="E146" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sustainable Corporate Governance, data economy 
-</t>
+          <t xml:space="preserve"> COFE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Wojtek Talko</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B147" s="2033" t="inlineStr">
@@ -10580,24 +10580,25 @@
       </c>
       <c r="C147" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D147" s="2036" t="inlineStr">
         <is>
-          <t>Computer &amp; Communications Industry Association</t>
+          <t>Teknikföretagen</t>
         </is>
       </c>
       <c r="E147" s="2036" t="inlineStr">
         <is>
-          <t>Political Advertising</t>
+          <t xml:space="preserve">Sustainable Corporate Governance
+ </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Alvaro De Elera</t>
+          <t>Monika Ladmanova, Wojtek Talko</t>
         </is>
       </c>
       <c r="B148" s="2033" t="inlineStr">
@@ -10612,44 +10613,43 @@
       </c>
       <c r="D148" s="2036" t="inlineStr">
         <is>
+          <t>Computer &amp; Communications Industry Association</t>
+        </is>
+      </c>
+      <c r="E148" s="2036" t="inlineStr">
+        <is>
+          <t>Political Advertising</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2036" t="inlineStr">
+        <is>
+          <t>Alvaro De Elera, Wojtek Talko</t>
+        </is>
+      </c>
+      <c r="B149" s="2033" t="inlineStr">
+        <is>
+          <t>04/04/2022</t>
+        </is>
+      </c>
+      <c r="C149" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D149" s="2036" t="inlineStr">
+        <is>
           <t>Indra</t>
         </is>
       </c>
-      <c r="E148" s="2036" t="inlineStr">
+      <c r="E149" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Presentation of the activities of Indra in the context of electoral resilience
 </t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2036" t="inlineStr">
-        <is>
-          <t>Renate Nikolay</t>
-        </is>
-      </c>
-      <c r="B149" s="2033" t="inlineStr">
-        <is>
-          <t>04/04/2022</t>
-        </is>
-      </c>
-      <c r="C149" s="2036" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D149" s="2036" t="inlineStr">
-        <is>
-          <t>Teknikföretagen</t>
-        </is>
-      </c>
-      <c r="E149" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sustainable Corporate Governance
- </t>
-        </is>
-      </c>
-    </row>
     <row r="150">
       <c r="A150" s="2036" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
     <row r="155">
       <c r="A155" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B155" s="2033" t="inlineStr">
@@ -10804,19 +10804,19 @@
       </c>
       <c r="D155" s="2036" t="inlineStr">
         <is>
-          <t>Disinformation Index Ltd</t>
+          <t>Deutsche Welle</t>
         </is>
       </c>
       <c r="E155" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Disinformation</t>
+          <t xml:space="preserve">Media freedom Act </t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B156" s="2033" t="inlineStr">
@@ -10831,19 +10831,19 @@
       </c>
       <c r="D156" s="2036" t="inlineStr">
         <is>
-          <t>Deutsche Welle</t>
+          <t>Disinformation Index Ltd</t>
         </is>
       </c>
       <c r="E156" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media freedom Act </t>
+          <t xml:space="preserve"> Disinformation</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Marie Frenay</t>
+          <t>Marie Frenay, Daniel Braun</t>
         </is>
       </c>
       <c r="B157" s="2033" t="inlineStr">
@@ -11091,59 +11091,59 @@
     <row r="166">
       <c r="A166" s="2036" t="inlineStr">
         <is>
+          <t>Renate Nikolay</t>
+        </is>
+      </c>
+      <c r="B166" s="2033" t="inlineStr">
+        <is>
+          <t>27/01/2022</t>
+        </is>
+      </c>
+      <c r="C166" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D166" s="2036" t="inlineStr">
+        <is>
+          <t>Europäische Akademie für Informationsfreiheit und Datenschutz</t>
+        </is>
+      </c>
+      <c r="E166" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EU Data strategy
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2036" t="inlineStr">
+        <is>
           <t>Monika Ladmanova, Wojtek Talko</t>
         </is>
       </c>
-      <c r="B166" s="2033" t="inlineStr">
+      <c r="B167" s="2033" t="inlineStr">
         <is>
           <t>27/01/2022</t>
         </is>
       </c>
-      <c r="C166" s="2036" t="inlineStr">
+      <c r="C167" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D166" s="2036" t="inlineStr">
+      <c r="D167" s="2036" t="inlineStr">
         <is>
           <t>Interactive Advertising Bureau Europe</t>
         </is>
       </c>
-      <c r="E166" s="2036" t="inlineStr">
+      <c r="E167" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Political advertising 
 </t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2036" t="inlineStr">
-        <is>
-          <t>Renate Nikolay</t>
-        </is>
-      </c>
-      <c r="B167" s="2033" t="inlineStr">
-        <is>
-          <t>27/01/2022</t>
-        </is>
-      </c>
-      <c r="C167" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D167" s="2036" t="inlineStr">
-        <is>
-          <t>Europäische Akademie für Informationsfreiheit und Datenschutz</t>
-        </is>
-      </c>
-      <c r="E167" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EU Data strategy
-</t>
-        </is>
-      </c>
-    </row>
     <row r="168">
       <c r="A168" s="2036" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
     <row r="171">
       <c r="A171" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Monika Ladmanova</t>
+          <t>Monika Ladmanova, Daniel Braun</t>
         </is>
       </c>
       <c r="B171" s="2033" t="inlineStr">
@@ -11517,52 +11517,52 @@
       </c>
       <c r="C181" s="2036" t="inlineStr">
         <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="D181" s="2036" t="inlineStr">
+        <is>
+          <t>Allianz SE</t>
+        </is>
+      </c>
+      <c r="E181" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Data protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2036" t="inlineStr">
+        <is>
+          <t>Renate Nikolay</t>
+        </is>
+      </c>
+      <c r="B182" s="2033" t="inlineStr">
+        <is>
+          <t>17/11/2021</t>
+        </is>
+      </c>
+      <c r="C182" s="2036" t="inlineStr">
+        <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="D181" s="2036" t="inlineStr">
+      <c r="D182" s="2036" t="inlineStr">
         <is>
           <t>Meta Platforms Ireland Limited and its various subsidiaries</t>
         </is>
       </c>
-      <c r="E181" s="2036" t="inlineStr">
+      <c r="E182" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Digital files
 </t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2036" t="inlineStr">
-        <is>
-          <t>Daniel Braun</t>
-        </is>
-      </c>
-      <c r="B182" s="2033" t="inlineStr">
-        <is>
-          <t>17/11/2021</t>
-        </is>
-      </c>
-      <c r="C182" s="2036" t="inlineStr">
-        <is>
-          <t>VC</t>
-        </is>
-      </c>
-      <c r="D182" s="2036" t="inlineStr">
-        <is>
-          <t>Asociace pro mezinárodní otázky, z.s.</t>
-        </is>
-      </c>
-      <c r="E182" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Disinformation, Foreign influence </t>
-        </is>
-      </c>
-    </row>
     <row r="183">
       <c r="A183" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B183" s="2033" t="inlineStr">
@@ -11572,17 +11572,17 @@
       </c>
       <c r="C183" s="2036" t="inlineStr">
         <is>
-          <t>Cologne</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="D183" s="2036" t="inlineStr">
         <is>
-          <t>Allianz SE</t>
+          <t>Asociace pro mezinárodní otázky, z.s.</t>
         </is>
       </c>
       <c r="E183" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Data protection</t>
+          <t xml:space="preserve">Disinformation, Foreign influence </t>
         </is>
       </c>
     </row>
@@ -11725,7 +11725,7 @@
     <row r="189">
       <c r="A189" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Wojtek Talko, Monika Ladmanova</t>
+          <t>Daniel Braun, Monika Ladmanova, Wojtek Talko</t>
         </is>
       </c>
       <c r="B189" s="2033" t="inlineStr">
@@ -11789,17 +11789,17 @@
       </c>
       <c r="C191" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D191" s="2036" t="inlineStr">
         <is>
-          <t>Vodafone Stiftung Deutschland gGmbH</t>
+          <t>Heinrich Böll Stiftung e.V.</t>
         </is>
       </c>
       <c r="E191" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Data flows, digital rulebook,privacy</t>
+          <t xml:space="preserve"> Digital rulebook, DSA, DMA</t>
         </is>
       </c>
     </row>
@@ -11816,17 +11816,17 @@
       </c>
       <c r="C192" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D192" s="2036" t="inlineStr">
         <is>
-          <t>Heinrich Böll Stiftung e.V.</t>
+          <t>Vodafone Stiftung Deutschland gGmbH</t>
         </is>
       </c>
       <c r="E192" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital rulebook, DSA, DMA</t>
+          <t xml:space="preserve"> Data flows, digital rulebook,privacy</t>
         </is>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
     <row r="197">
       <c r="A197" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Wojtek Talko</t>
+          <t>Wojtek Talko, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B197" s="2033" t="inlineStr">
@@ -11968,7 +11968,7 @@
     <row r="198">
       <c r="A198" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Simona Constantin</t>
         </is>
       </c>
       <c r="B198" s="2033" t="inlineStr">
@@ -11978,24 +11978,24 @@
       </c>
       <c r="C198" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D198" s="2036" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL Group</t>
+          <t>Reporters sans frontières</t>
         </is>
       </c>
       <c r="E198" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable Corporate Governance</t>
+          <t xml:space="preserve"> SLAPP</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B199" s="2033" t="inlineStr">
@@ -12005,24 +12005,24 @@
       </c>
       <c r="C199" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D199" s="2036" t="inlineStr">
         <is>
-          <t>Reporters sans frontières</t>
+          <t>ITI - The Information Technology Industry Council</t>
         </is>
       </c>
       <c r="E199" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SLAPP</t>
+          <t xml:space="preserve"> Privacy, data flow,transatlantic cooperation</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B200" s="2033" t="inlineStr">
@@ -12032,24 +12032,24 @@
       </c>
       <c r="C200" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D200" s="2036" t="inlineStr">
         <is>
-          <t>Kofi Annan Foundation</t>
+          <t>Deutsche Post DHL Group</t>
         </is>
       </c>
       <c r="E200" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EDAP</t>
+          <t xml:space="preserve"> Sustainable Corporate Governance</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B201" s="2033" t="inlineStr">
@@ -12059,17 +12059,17 @@
       </c>
       <c r="C201" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D201" s="2036" t="inlineStr">
         <is>
-          <t>ITI - The Information Technology Industry Council</t>
+          <t>Kofi Annan Foundation</t>
         </is>
       </c>
       <c r="E201" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Privacy, data flow,transatlantic cooperation</t>
+          <t xml:space="preserve"> EDAP</t>
         </is>
       </c>
     </row>
@@ -12103,7 +12103,7 @@
     <row r="203">
       <c r="A203" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B203" s="2033" t="inlineStr">
@@ -12118,19 +12118,19 @@
       </c>
       <c r="D203" s="2036" t="inlineStr">
         <is>
-          <t>European University Institute</t>
+          <t>DIGITALEUROPE</t>
         </is>
       </c>
       <c r="E203" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fighting misinformation online event </t>
+          <t xml:space="preserve">Data flows, digital decade </t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B204" s="2033" t="inlineStr">
@@ -12140,24 +12140,24 @@
       </c>
       <c r="C204" s="2036" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D204" s="2036" t="inlineStr">
         <is>
-          <t>Committee to Protect Journalists</t>
+          <t>European University Institute</t>
         </is>
       </c>
       <c r="E204" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Safety of journalists</t>
+          <t xml:space="preserve">Fighting misinformation online event </t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B205" s="2033" t="inlineStr">
@@ -12167,24 +12167,24 @@
       </c>
       <c r="C205" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="D205" s="2036" t="inlineStr">
         <is>
-          <t>DIGITALEUROPE</t>
+          <t>Committee to Protect Journalists</t>
         </is>
       </c>
       <c r="E205" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Data flows, digital decade </t>
+          <t xml:space="preserve"> Safety of journalists</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko</t>
+          <t>Simona Constantin</t>
         </is>
       </c>
       <c r="B206" s="2033" t="inlineStr">
@@ -12194,24 +12194,24 @@
       </c>
       <c r="C206" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Videocongerence</t>
         </is>
       </c>
       <c r="D206" s="2036" t="inlineStr">
         <is>
-          <t>European Internet Services Providers Association</t>
+          <t>Principles for Responsible Investment</t>
         </is>
       </c>
       <c r="E206" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital policies</t>
+          <t xml:space="preserve">Sustainable Corporate Governance </t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Wojtek Talko</t>
         </is>
       </c>
       <c r="B207" s="2033" t="inlineStr">
@@ -12221,24 +12221,24 @@
       </c>
       <c r="C207" s="2036" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D207" s="2036" t="inlineStr">
         <is>
-          <t>European University Institute</t>
+          <t>European Internet Services Providers Association</t>
         </is>
       </c>
       <c r="E207" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Media freedom &amp; pluralism</t>
+          <t xml:space="preserve"> Digital policies</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B208" s="2033" t="inlineStr">
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C208" s="2036" t="inlineStr">
         <is>
-          <t>Videocongerence</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="D208" s="2036" t="inlineStr">
         <is>
-          <t>Principles for Responsible Investment</t>
+          <t>European University Institute</t>
         </is>
       </c>
       <c r="E208" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sustainable Corporate Governance </t>
+          <t xml:space="preserve"> Media freedom &amp; pluralism</t>
         </is>
       </c>
     </row>
@@ -12541,7 +12541,7 @@
     <row r="219">
       <c r="A219" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Monika Ladmanova, Daniel Braun</t>
+          <t>Monika Ladmanova, Wojtek Talko, Daniel Braun</t>
         </is>
       </c>
       <c r="B219" s="2033" t="inlineStr">
@@ -12624,7 +12624,7 @@
     <row r="222">
       <c r="A222" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B222" s="2033" t="inlineStr">
@@ -12639,19 +12639,19 @@
       </c>
       <c r="D222" s="2036" t="inlineStr">
         <is>
-          <t>Heinrich Böll Stiftung e.V.</t>
+          <t>Avaaz Foundation</t>
         </is>
       </c>
       <c r="E222" s="2036" t="inlineStr">
         <is>
-          <t>Disinformation</t>
+          <t xml:space="preserve">Code of Practice on disinformation </t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B223" s="2033" t="inlineStr">
@@ -12666,19 +12666,19 @@
       </c>
       <c r="D223" s="2036" t="inlineStr">
         <is>
-          <t>Avaaz Foundation</t>
+          <t>Heinrich Böll Stiftung e.V.</t>
         </is>
       </c>
       <c r="E223" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Code of Practice on disinformation </t>
+          <t>Disinformation</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B224" s="2033" t="inlineStr">
@@ -12693,19 +12693,20 @@
       </c>
       <c r="D224" s="2036" t="inlineStr">
         <is>
-          <t>Academy of European Law</t>
+          <t>GLOBSEC</t>
         </is>
       </c>
       <c r="E224" s="2036" t="inlineStr">
         <is>
-          <t>European Media Law</t>
+          <t xml:space="preserve">Resilience in a Transatlantic and Democratic Information Space
+</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B225" s="2033" t="inlineStr">
@@ -12720,20 +12721,19 @@
       </c>
       <c r="D225" s="2036" t="inlineStr">
         <is>
-          <t>GLOBSEC</t>
+          <t>Academy of European Law</t>
         </is>
       </c>
       <c r="E225" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Resilience in a Transatlantic and Democratic Information Space
-</t>
+          <t>European Media Law</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Wojtek Talko</t>
+          <t>Wojtek Talko, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B226" s="2033" t="inlineStr">
@@ -12868,7 +12868,7 @@
     <row r="231">
       <c r="A231" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Daniel Braun</t>
+          <t>Monika Ladmanova, Wojtek Talko</t>
         </is>
       </c>
       <c r="B231" s="2033" t="inlineStr">
@@ -12883,19 +12883,19 @@
       </c>
       <c r="D231" s="2036" t="inlineStr">
         <is>
-          <t>TikTok Technology Ltd</t>
+          <t>European Network of National Human Rights Institutions</t>
         </is>
       </c>
       <c r="E231" s="2036" t="inlineStr">
         <is>
-          <t>Code of Practice on disinformation</t>
+          <t>Fundamental rights</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Monika Ladmanova</t>
+          <t>Simona Constantin</t>
         </is>
       </c>
       <c r="B232" s="2033" t="inlineStr">
@@ -12910,19 +12910,19 @@
       </c>
       <c r="D232" s="2036" t="inlineStr">
         <is>
-          <t>European Network of National Human Rights Institutions</t>
+          <t>Confederation of Swedish Enterprise</t>
         </is>
       </c>
       <c r="E232" s="2036" t="inlineStr">
         <is>
-          <t>Fundamental rights</t>
+          <t>Sustainable Corporate Governance</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin</t>
+          <t>Daniel Braun, Wojtek Talko</t>
         </is>
       </c>
       <c r="B233" s="2033" t="inlineStr">
@@ -12937,12 +12937,12 @@
       </c>
       <c r="D233" s="2036" t="inlineStr">
         <is>
-          <t>Confederation of Swedish Enterprise</t>
+          <t>TikTok Technology Ltd</t>
         </is>
       </c>
       <c r="E233" s="2036" t="inlineStr">
         <is>
-          <t>Sustainable Corporate Governance</t>
+          <t>Code of Practice on disinformation</t>
         </is>
       </c>
     </row>
@@ -13004,7 +13004,7 @@
     <row r="236">
       <c r="A236" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Marie Frenay</t>
+          <t>Marie Frenay, Daniel Braun</t>
         </is>
       </c>
       <c r="B236" s="2033" t="inlineStr">
@@ -13059,7 +13059,7 @@
     <row r="238">
       <c r="A238" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Alvaro De Elera</t>
         </is>
       </c>
       <c r="B238" s="2033" t="inlineStr">
@@ -13074,19 +13074,20 @@
       </c>
       <c r="D238" s="2036" t="inlineStr">
         <is>
-          <t>News/Media Alliance</t>
+          <t>Asociación de Profesionales de las Relaciones Institucionales</t>
         </is>
       </c>
       <c r="E238" s="2036" t="inlineStr">
         <is>
-          <t>Media freedom act</t>
+          <t xml:space="preserve">Transparency and accountability policies in the EU
+</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B239" s="2033" t="inlineStr">
@@ -13101,13 +13102,12 @@
       </c>
       <c r="D239" s="2036" t="inlineStr">
         <is>
-          <t>Asociación de Profesionales de las Relaciones Institucionales</t>
+          <t>News/Media Alliance</t>
         </is>
       </c>
       <c r="E239" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Transparency and accountability policies in the EU
-</t>
+          <t>Media freedom act</t>
         </is>
       </c>
     </row>
@@ -13141,7 +13141,7 @@
     <row r="241">
       <c r="A241" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera, Monika Ladmanova</t>
+          <t>Monika Ladmanova, Alvaro De Elera</t>
         </is>
       </c>
       <c r="B241" s="2033" t="inlineStr">
@@ -13250,7 +13250,7 @@
     <row r="245">
       <c r="A245" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera</t>
+          <t>Monika Ladmanova, Alvaro De Elera</t>
         </is>
       </c>
       <c r="B245" s="2033" t="inlineStr">
@@ -13265,19 +13265,19 @@
       </c>
       <c r="D245" s="2036" t="inlineStr">
         <is>
-          <t>Athenora Consulting</t>
+          <t>European Network of National Human Rights Institutions</t>
         </is>
       </c>
       <c r="E245" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The new transparency register</t>
+          <t xml:space="preserve"> Rule of Law</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera, Monika Ladmanova</t>
+          <t>Alvaro De Elera</t>
         </is>
       </c>
       <c r="B246" s="2033" t="inlineStr">
@@ -13292,12 +13292,12 @@
       </c>
       <c r="D246" s="2036" t="inlineStr">
         <is>
-          <t>European Network of National Human Rights Institutions</t>
+          <t>Athenora Consulting</t>
         </is>
       </c>
       <c r="E246" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rule of Law</t>
+          <t xml:space="preserve"> The new transparency register</t>
         </is>
       </c>
     </row>
@@ -13359,7 +13359,7 @@
     <row r="249">
       <c r="A249" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Marie Frenay, Wojtek Talko</t>
+          <t>Daniel Braun, Wojtek Talko, Marie Frenay</t>
         </is>
       </c>
       <c r="B249" s="2033" t="inlineStr">
@@ -13387,59 +13387,59 @@
     <row r="250">
       <c r="A250" s="2036" t="inlineStr">
         <is>
+          <t>Monika Ladmanova</t>
+        </is>
+      </c>
+      <c r="B250" s="2033" t="inlineStr">
+        <is>
+          <t>26/04/2021</t>
+        </is>
+      </c>
+      <c r="C250" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D250" s="2036" t="inlineStr">
+        <is>
+          <t>Prospera International Network of Women's Funds</t>
+        </is>
+      </c>
+      <c r="E250" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gender equality
+  </t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2036" t="inlineStr">
+        <is>
           <t>Marie Frenay</t>
         </is>
       </c>
-      <c r="B250" s="2033" t="inlineStr">
+      <c r="B251" s="2033" t="inlineStr">
         <is>
           <t>26/04/2021</t>
         </is>
       </c>
-      <c r="C250" s="2036" t="inlineStr">
+      <c r="C251" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D250" s="2036" t="inlineStr">
+      <c r="D251" s="2036" t="inlineStr">
         <is>
           <t>International Press Institute</t>
         </is>
       </c>
-      <c r="E250" s="2036" t="inlineStr">
+      <c r="E251" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Media freedom and media pluralism
  </t>
         </is>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2036" t="inlineStr">
-        <is>
-          <t>Monika Ladmanova</t>
-        </is>
-      </c>
-      <c r="B251" s="2033" t="inlineStr">
-        <is>
-          <t>26/04/2021</t>
-        </is>
-      </c>
-      <c r="C251" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D251" s="2036" t="inlineStr">
-        <is>
-          <t>Prospera International Network of Women's Funds</t>
-        </is>
-      </c>
-      <c r="E251" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gender equality
-  </t>
-        </is>
-      </c>
-    </row>
     <row r="252">
       <c r="A252" s="2036" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
     <row r="256">
       <c r="A256" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Alvaro De Elera, Simona Constantin, Marie Frenay</t>
         </is>
       </c>
       <c r="B256" s="2033" t="inlineStr">
@@ -13563,24 +13563,25 @@
       </c>
       <c r="C256" s="2036" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D256" s="2036" t="inlineStr">
         <is>
-          <t>EUROPE'S MEDIALAB (Fondation EURACTIV)</t>
+          <t>Open Society European Policy Institute</t>
         </is>
       </c>
       <c r="E256" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Media freedom and media pluralism</t>
+          <t xml:space="preserve">Democracy, rule of law, media aspects, role of civil society
+ </t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin, Marie Frenay, Alvaro De Elera</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B257" s="2033" t="inlineStr">
@@ -13590,18 +13591,17 @@
       </c>
       <c r="C257" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>call</t>
         </is>
       </c>
       <c r="D257" s="2036" t="inlineStr">
         <is>
-          <t>Open Society European Policy Institute</t>
+          <t>EUROPE'S MEDIALAB (Fondation EURACTIV)</t>
         </is>
       </c>
       <c r="E257" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Democracy, rule of law, media aspects, role of civil society
- </t>
+          <t xml:space="preserve"> Media freedom and media pluralism</t>
         </is>
       </c>
     </row>
@@ -13691,7 +13691,7 @@
     <row r="261">
       <c r="A261" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Simona Constantin</t>
         </is>
       </c>
       <c r="B261" s="2033" t="inlineStr">
@@ -13701,24 +13701,24 @@
       </c>
       <c r="C261" s="2036" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D261" s="2036" t="inlineStr">
         <is>
-          <t>European Federation of Journalists</t>
+          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, European Center for Constitutional and Human Rights, European Coalition for Corporate Justice</t>
         </is>
       </c>
       <c r="E261" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Media literacy</t>
+          <t xml:space="preserve"> EU Sustainable Corporate Governance &amp; Corporate Due Diligence </t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B262" s="2033" t="inlineStr">
@@ -13728,24 +13728,24 @@
       </c>
       <c r="C262" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>call</t>
         </is>
       </c>
       <c r="D262" s="2036" t="inlineStr">
         <is>
-          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, European Center for Constitutional and Human Rights, European Coalition for Corporate Justice</t>
+          <t>European Federation of Journalists</t>
         </is>
       </c>
       <c r="E262" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU Sustainable Corporate Governance &amp; Corporate Due Diligence </t>
+          <t xml:space="preserve"> Media literacy</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Daniel Braun, Marie Frenay</t>
+          <t>Daniel Braun, Wojtek Talko, Marie Frenay</t>
         </is>
       </c>
       <c r="B263" s="2033" t="inlineStr">
@@ -13881,7 +13881,7 @@
     <row r="268">
       <c r="A268" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B268" s="2033" t="inlineStr">
@@ -13891,24 +13891,24 @@
       </c>
       <c r="C268" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>call</t>
         </is>
       </c>
       <c r="D268" s="2036" t="inlineStr">
         <is>
-          <t>Evropské hodnoty z.s.</t>
+          <t>Reporters sans frontières</t>
         </is>
       </c>
       <c r="E268" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Disinformation</t>
+          <t xml:space="preserve"> Developments media situation in HU, PL, SL</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B269" s="2033" t="inlineStr">
@@ -13918,24 +13918,24 @@
       </c>
       <c r="C269" s="2036" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D269" s="2036" t="inlineStr">
         <is>
-          <t>Reporters sans frontières</t>
+          <t>Evropské hodnoty z.s.</t>
         </is>
       </c>
       <c r="E269" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Developments media situation in HU, PL, SL</t>
+          <t xml:space="preserve"> Disinformation</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Alvaro De Elera</t>
         </is>
       </c>
       <c r="B270" s="2033" t="inlineStr">
@@ -13950,19 +13950,20 @@
       </c>
       <c r="D270" s="2036" t="inlineStr">
         <is>
-          <t>Concordia Sozialprojekte Gemeinnützige Privatstiftung</t>
+          <t>Real Instituto Elcano</t>
         </is>
       </c>
       <c r="E270" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media freedom </t>
+          <t xml:space="preserve">Spanish Stakeholder Forum on Future of Europe and differentiated integration
+</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B271" s="2033" t="inlineStr">
@@ -13977,13 +13978,12 @@
       </c>
       <c r="D271" s="2036" t="inlineStr">
         <is>
-          <t>Real Instituto Elcano</t>
+          <t>Concordia Sozialprojekte Gemeinnützige Privatstiftung</t>
         </is>
       </c>
       <c r="E271" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spanish Stakeholder Forum on Future of Europe and differentiated integration
-</t>
+          <t xml:space="preserve">Media freedom </t>
         </is>
       </c>
     </row>
@@ -14180,7 +14180,7 @@
     <row r="279">
       <c r="A279" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B279" s="2033" t="inlineStr">
@@ -14195,19 +14195,20 @@
       </c>
       <c r="D279" s="2036" t="inlineStr">
         <is>
-          <t>Cogniware, s.r.o.</t>
+          <t>WEInvest</t>
         </is>
       </c>
       <c r="E279" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fake news recognition</t>
+          <t xml:space="preserve">Women empowerment in finance
+ </t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B280" s="2033" t="inlineStr">
@@ -14222,13 +14223,12 @@
       </c>
       <c r="D280" s="2036" t="inlineStr">
         <is>
-          <t>WEInvest</t>
+          <t>Cogniware, s.r.o.</t>
         </is>
       </c>
       <c r="E280" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Women empowerment in finance
- </t>
+          <t xml:space="preserve"> Fake news recognition</t>
         </is>
       </c>
     </row>
@@ -14316,59 +14316,59 @@
     <row r="284">
       <c r="A284" s="2036" t="inlineStr">
         <is>
+          <t>Daniel Braun</t>
+        </is>
+      </c>
+      <c r="B284" s="2033" t="inlineStr">
+        <is>
+          <t>28/01/2021</t>
+        </is>
+      </c>
+      <c r="C284" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D284" s="2036" t="inlineStr">
+        <is>
+          <t>Workday</t>
+        </is>
+      </c>
+      <c r="E284" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CPDP Conference panel on AI regulation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2036" t="inlineStr">
+        <is>
           <t>Alvaro De Elera</t>
         </is>
       </c>
-      <c r="B284" s="2033" t="inlineStr">
+      <c r="B285" s="2033" t="inlineStr">
         <is>
           <t>28/01/2021</t>
         </is>
       </c>
-      <c r="C284" s="2036" t="inlineStr">
+      <c r="C285" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D284" s="2036" t="inlineStr">
+      <c r="D285" s="2036" t="inlineStr">
         <is>
           <t>Indra</t>
         </is>
       </c>
-      <c r="E284" s="2036" t="inlineStr">
+      <c r="E285" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Misinformation in electoral processes
 </t>
         </is>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2036" t="inlineStr">
-        <is>
-          <t>Daniel Braun</t>
-        </is>
-      </c>
-      <c r="B285" s="2033" t="inlineStr">
-        <is>
-          <t>28/01/2021</t>
-        </is>
-      </c>
-      <c r="C285" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D285" s="2036" t="inlineStr">
-        <is>
-          <t>Workday</t>
-        </is>
-      </c>
-      <c r="E285" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CPDP Conference panel on AI regulation
-</t>
-        </is>
-      </c>
-    </row>
     <row r="286">
       <c r="A286" s="2036" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
     <row r="288">
       <c r="A288" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay, Simona Constantin, Alvaro De Elera</t>
+          <t>Simona Constantin, Marie Frenay, Alvaro De Elera</t>
         </is>
       </c>
       <c r="B288" s="2033" t="inlineStr">
@@ -14538,62 +14538,63 @@
     <row r="292">
       <c r="A292" s="2036" t="inlineStr">
         <is>
+          <t>Alvaro De Elera</t>
+        </is>
+      </c>
+      <c r="B292" s="2033" t="inlineStr">
+        <is>
+          <t>20/01/2021</t>
+        </is>
+      </c>
+      <c r="C292" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D292" s="2036" t="inlineStr">
+        <is>
+          <t>Central European University</t>
+        </is>
+      </c>
+      <c r="E292" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rule of Law
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2036" t="inlineStr">
+        <is>
           <t>Daniel Braun</t>
         </is>
       </c>
-      <c r="B292" s="2033" t="inlineStr">
+      <c r="B293" s="2033" t="inlineStr">
         <is>
           <t>20/01/2021</t>
         </is>
       </c>
-      <c r="C292" s="2036" t="inlineStr">
+      <c r="C293" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D292" s="2036" t="inlineStr">
+      <c r="D293" s="2036" t="inlineStr">
         <is>
           <t>Twitter International Unlimited Company</t>
         </is>
       </c>
-      <c r="E292" s="2036" t="inlineStr">
+      <c r="E293" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">EDAP, Code of Practice
 </t>
         </is>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2036" t="inlineStr">
-        <is>
-          <t>Renate Nikolay</t>
-        </is>
-      </c>
-      <c r="B293" s="2033" t="inlineStr">
-        <is>
-          <t>20/01/2021</t>
-        </is>
-      </c>
-      <c r="C293" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D293" s="2036" t="inlineStr">
-        <is>
-          <t>Vodafone Belgium SA</t>
-        </is>
-      </c>
-      <c r="E293" s="2036" t="inlineStr">
-        <is>
-          <t>Data protection</t>
-        </is>
-      </c>
-    </row>
     <row r="294">
       <c r="A294" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B294" s="2033" t="inlineStr">
@@ -14608,20 +14609,19 @@
       </c>
       <c r="D294" s="2036" t="inlineStr">
         <is>
-          <t>Central European University</t>
+          <t>Vodafone Belgium SA</t>
         </is>
       </c>
       <c r="E294" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rule of Law
-</t>
+          <t>Data protection</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin, Monika Ladmanova</t>
+          <t>Monika Ladmanova, Simona Constantin</t>
         </is>
       </c>
       <c r="B295" s="2033" t="inlineStr">
@@ -14921,7 +14921,7 @@
     <row r="306">
       <c r="A306" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay, Wojtek Talko</t>
+          <t>Wojtek Talko, Renate Nikolay</t>
         </is>
       </c>
       <c r="B306" s="2033" t="inlineStr">
@@ -15464,7 +15464,7 @@
     <row r="326">
       <c r="A326" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Marie Frenay</t>
+          <t>Marie Frenay, Daniel Braun</t>
         </is>
       </c>
       <c r="B326" s="2033" t="inlineStr">
@@ -15519,7 +15519,7 @@
     <row r="328">
       <c r="A328" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Daniel Braun</t>
+          <t>Daniel Braun, Wojtek Talko</t>
         </is>
       </c>
       <c r="B328" s="2033" t="inlineStr">
@@ -15602,7 +15602,7 @@
     <row r="331">
       <c r="A331" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin, Kevin O'Connell</t>
+          <t>Kevin O'Connell, Simona Constantin</t>
         </is>
       </c>
       <c r="B331" s="2033" t="inlineStr">
@@ -15657,7 +15657,7 @@
     <row r="333">
       <c r="A333" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Marie Frenay</t>
+          <t>Marie Frenay, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B333" s="2033" t="inlineStr">
@@ -15685,59 +15685,59 @@
     <row r="334">
       <c r="A334" s="2036" t="inlineStr">
         <is>
+          <t>Marie Frenay</t>
+        </is>
+      </c>
+      <c r="B334" s="2033" t="inlineStr">
+        <is>
+          <t>02/09/2020</t>
+        </is>
+      </c>
+      <c r="C334" s="2036" t="inlineStr">
+        <is>
+          <t>videoconference</t>
+        </is>
+      </c>
+      <c r="D334" s="2036" t="inlineStr">
+        <is>
+          <t>EUROPE'S MEDIALAB (Fondation EURACTIV)</t>
+        </is>
+      </c>
+      <c r="E334" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">European Democracy Action Plan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2036" t="inlineStr">
+        <is>
           <t>Renate Nikolay</t>
         </is>
       </c>
-      <c r="B334" s="2033" t="inlineStr">
+      <c r="B335" s="2033" t="inlineStr">
         <is>
           <t>02/09/2020</t>
         </is>
       </c>
-      <c r="C334" s="2036" t="inlineStr">
+      <c r="C335" s="2036" t="inlineStr">
         <is>
           <t>videoconference</t>
         </is>
       </c>
-      <c r="D334" s="2036" t="inlineStr">
+      <c r="D335" s="2036" t="inlineStr">
         <is>
           <t>Microsoft Corporation</t>
         </is>
       </c>
-      <c r="E334" s="2036" t="inlineStr">
+      <c r="E335" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Disinformation
 </t>
         </is>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2036" t="inlineStr">
-        <is>
-          <t>Marie Frenay</t>
-        </is>
-      </c>
-      <c r="B335" s="2033" t="inlineStr">
-        <is>
-          <t>02/09/2020</t>
-        </is>
-      </c>
-      <c r="C335" s="2036" t="inlineStr">
-        <is>
-          <t>videoconference</t>
-        </is>
-      </c>
-      <c r="D335" s="2036" t="inlineStr">
-        <is>
-          <t>EUROPE'S MEDIALAB (Fondation EURACTIV)</t>
-        </is>
-      </c>
-      <c r="E335" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">European Democracy Action Plan
-</t>
-        </is>
-      </c>
-    </row>
     <row r="336">
       <c r="A336" s="2036" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
     <row r="341">
       <c r="A341" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Simona Constantin</t>
+          <t>Simona Constantin, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B341" s="2033" t="inlineStr">
@@ -15985,58 +15985,58 @@
     <row r="345">
       <c r="A345" s="2036" t="inlineStr">
         <is>
+          <t>Marie Frenay</t>
+        </is>
+      </c>
+      <c r="B345" s="2033" t="inlineStr">
+        <is>
+          <t>19/06/2020</t>
+        </is>
+      </c>
+      <c r="C345" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D345" s="2036" t="inlineStr">
+        <is>
+          <t>Stichting Free Press Unlimited, Europäisches Zentrum für Presse- und Medienfreiheit, ARTICLE 19, International Press Institute</t>
+        </is>
+      </c>
+      <c r="E345" s="2036" t="inlineStr">
+        <is>
+          <t>Broad introduction to Media Freedom Rapid Response</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2036" t="inlineStr">
+        <is>
           <t>Marie Frenay, Simona Constantin</t>
         </is>
       </c>
-      <c r="B345" s="2033" t="inlineStr">
+      <c r="B346" s="2033" t="inlineStr">
         <is>
           <t>19/06/2020</t>
         </is>
       </c>
-      <c r="C345" s="2036" t="inlineStr">
+      <c r="C346" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D345" s="2036" t="inlineStr">
+      <c r="D346" s="2036" t="inlineStr">
         <is>
           <t>Europäisches Zentrum für Presse- und Medienfreiheit</t>
         </is>
       </c>
-      <c r="E345" s="2036" t="inlineStr">
+      <c r="E346" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">“Media Freedom Rapid Response” project
 </t>
         </is>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2036" t="inlineStr">
-        <is>
-          <t>Marie Frenay</t>
-        </is>
-      </c>
-      <c r="B346" s="2033" t="inlineStr">
-        <is>
-          <t>19/06/2020</t>
-        </is>
-      </c>
-      <c r="C346" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D346" s="2036" t="inlineStr">
-        <is>
-          <t>Stichting Free Press Unlimited, Europäisches Zentrum für Presse- und Medienfreiheit, ARTICLE 19, International Press Institute</t>
-        </is>
-      </c>
-      <c r="E346" s="2036" t="inlineStr">
-        <is>
-          <t>Broad introduction to Media Freedom Rapid Response</t>
-        </is>
-      </c>
-    </row>
     <row r="347">
       <c r="A347" s="2036" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
     <row r="349">
       <c r="A349" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Daniel Braun</t>
+          <t>Daniel Braun, Wojtek Talko</t>
         </is>
       </c>
       <c r="B349" s="2033" t="inlineStr">
@@ -16121,7 +16121,7 @@
     <row r="350">
       <c r="A350" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Daniel Braun, Monika Ladmanova</t>
+          <t>Wojtek Talko, Monika Ladmanova, Daniel Braun</t>
         </is>
       </c>
       <c r="B350" s="2033" t="inlineStr">
@@ -16202,7 +16202,7 @@
     <row r="353">
       <c r="A353" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B353" s="2033" t="inlineStr">
@@ -16217,19 +16217,19 @@
       </c>
       <c r="D353" s="2036" t="inlineStr">
         <is>
-          <t>Committee to Protect Journalists</t>
+          <t>EUROPE'S MEDIALAB (Fondation EURACTIV)</t>
         </is>
       </c>
       <c r="E353" s="2036" t="inlineStr">
         <is>
-          <t>Protecting journalists and freedom of expression</t>
+          <t>Support to media at COVID times</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B354" s="2033" t="inlineStr">
@@ -16244,12 +16244,12 @@
       </c>
       <c r="D354" s="2036" t="inlineStr">
         <is>
-          <t>EUROPE'S MEDIALAB (Fondation EURACTIV)</t>
+          <t>Committee to Protect Journalists</t>
         </is>
       </c>
       <c r="E354" s="2036" t="inlineStr">
         <is>
-          <t>Support to media at COVID times</t>
+          <t>Protecting journalists and freedom of expression</t>
         </is>
       </c>
     </row>
@@ -16283,7 +16283,7 @@
     <row r="356">
       <c r="A356" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Daniel Braun</t>
+          <t>Daniel Braun, Wojtek Talko</t>
         </is>
       </c>
       <c r="B356" s="2033" t="inlineStr">
@@ -16310,7 +16310,7 @@
     <row r="357">
       <c r="A357" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Eduard Hulicius</t>
+          <t>Eduard Hulicius, Daniel Braun</t>
         </is>
       </c>
       <c r="B357" s="2033" t="inlineStr">
@@ -16418,7 +16418,7 @@
     <row r="361">
       <c r="A361" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova</t>
+          <t>Marie Frenay, Simona Constantin</t>
         </is>
       </c>
       <c r="B361" s="2033" t="inlineStr">
@@ -16433,19 +16433,19 @@
       </c>
       <c r="D361" s="2036" t="inlineStr">
         <is>
-          <t>Open Society European Policy Institute</t>
+          <t>Stichting Free Press Unlimited, International Federation of Journalists, European Federation of Journalists, Europäisches Zentrum für Presse- und Medienfreiheit, Association of European Journalists, Reporters sans frontières, Committee to Protect Journalists, International Press Institute</t>
         </is>
       </c>
       <c r="E361" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roma inclusion, impact of COVID19 crisis on Roma</t>
+          <t xml:space="preserve"> Freedom of press and rights of journalists  </t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay, Simona Constantin</t>
+          <t>Monika Ladmanova</t>
         </is>
       </c>
       <c r="B362" s="2033" t="inlineStr">
@@ -16460,12 +16460,12 @@
       </c>
       <c r="D362" s="2036" t="inlineStr">
         <is>
-          <t>Stichting Free Press Unlimited, International Federation of Journalists, European Federation of Journalists, Europäisches Zentrum für Presse- und Medienfreiheit, Association of European Journalists, Reporters sans frontières, Committee to Protect Journalists, International Press Institute</t>
+          <t>Open Society European Policy Institute</t>
         </is>
       </c>
       <c r="E362" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Freedom of press and rights of journalists  </t>
+          <t xml:space="preserve"> Roma inclusion, impact of COVID19 crisis on Roma</t>
         </is>
       </c>
     </row>
@@ -16499,7 +16499,7 @@
     <row r="364">
       <c r="A364" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Renate Nikolay, Eduard Hulicius, Wojtek Talko, Marie Frenay, Monika Ladmanova, Simona Constantin, Kevin O'Connell</t>
+          <t>Simona Constantin, Marie Frenay</t>
         </is>
       </c>
       <c r="B364" s="2033" t="inlineStr">
@@ -16514,19 +16514,19 @@
       </c>
       <c r="D364" s="2036" t="inlineStr">
         <is>
-          <t>Twitter International Unlimited Company, Microsoft Corporation, Meta Platforms Ireland Limited and its various subsidiaries, LinkedIn Ireland, Mozilla Corporation, DOT Europe, Google</t>
+          <t>European Federation of Journalists</t>
         </is>
       </c>
       <c r="E364" s="2036" t="inlineStr">
         <is>
-          <t>Disinformation/COVID-19</t>
+          <t>Media freedom/COVID-19</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin, Marie Frenay</t>
+          <t>Simona Constantin, Marie Frenay, Monika Ladmanova, Daniel Braun, Kevin O'Connell, Renate Nikolay, Wojtek Talko, Eduard Hulicius</t>
         </is>
       </c>
       <c r="B365" s="2033" t="inlineStr">
@@ -16541,12 +16541,12 @@
       </c>
       <c r="D365" s="2036" t="inlineStr">
         <is>
-          <t>European Federation of Journalists</t>
+          <t>Twitter International Unlimited Company, Microsoft Corporation, Meta Platforms Ireland Limited and its various subsidiaries, LinkedIn Ireland, Mozilla Corporation, DOT Europe, Google</t>
         </is>
       </c>
       <c r="E365" s="2036" t="inlineStr">
         <is>
-          <t>Media freedom/COVID-19</t>
+          <t>Disinformation/COVID-19</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
     <row r="370">
       <c r="A370" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay, Daniel Braun, Wojtek Talko</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B370" s="2033" t="inlineStr">
@@ -16676,19 +16676,19 @@
       </c>
       <c r="D370" s="2036" t="inlineStr">
         <is>
-          <t>Twitter International Unlimited Company, Microsoft Corporation, Meta Platforms Ireland Limited and its various subsidiaries, Google</t>
+          <t>EuroCommerce</t>
         </is>
       </c>
       <c r="E370" s="2036" t="inlineStr">
         <is>
-          <t>Disinfromation, COVID-19</t>
+          <t>Dual quality</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Daniel Braun, Wojtek Talko, Renate Nikolay</t>
         </is>
       </c>
       <c r="B371" s="2033" t="inlineStr">
@@ -16703,12 +16703,12 @@
       </c>
       <c r="D371" s="2036" t="inlineStr">
         <is>
-          <t>EuroCommerce</t>
+          <t>Twitter International Unlimited Company, Microsoft Corporation, Meta Platforms Ireland Limited and its various subsidiaries, Google</t>
         </is>
       </c>
       <c r="E371" s="2036" t="inlineStr">
         <is>
-          <t>Dual quality</t>
+          <t>Disinfromation, COVID-19</t>
         </is>
       </c>
     </row>
@@ -16742,7 +16742,7 @@
     <row r="373">
       <c r="A373" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Renate Nikolay, Simona Constantin</t>
+          <t>Simona Constantin, Renate Nikolay, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B373" s="2033" t="inlineStr">
@@ -16850,7 +16850,7 @@
     <row r="377">
       <c r="A377" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay, Renate Nikolay</t>
+          <t>Renate Nikolay, Marie Frenay</t>
         </is>
       </c>
       <c r="B377" s="2033" t="inlineStr">
@@ -16877,7 +16877,7 @@
     <row r="378">
       <c r="A378" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Eduard Hulicius</t>
+          <t>Eduard Hulicius, Daniel Braun</t>
         </is>
       </c>
       <c r="B378" s="2033" t="inlineStr">
@@ -16904,7 +16904,7 @@
     <row r="379">
       <c r="A379" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay, Wojtek Talko, Daniel Braun</t>
+          <t>Wojtek Talko, Daniel Braun, Renate Nikolay</t>
         </is>
       </c>
       <c r="B379" s="2033" t="inlineStr">
@@ -17066,7 +17066,7 @@
     <row r="385">
       <c r="A385" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B385" s="2033" t="inlineStr">
@@ -17081,19 +17081,19 @@
       </c>
       <c r="D385" s="2036" t="inlineStr">
         <is>
-          <t>Netflix International B.V.</t>
+          <t>Twitter International Unlimited Company</t>
         </is>
       </c>
       <c r="E385" s="2036" t="inlineStr">
         <is>
-          <t>Media freedom</t>
+          <t>Disinformation, Fake news</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B386" s="2033" t="inlineStr">
@@ -17108,12 +17108,12 @@
       </c>
       <c r="D386" s="2036" t="inlineStr">
         <is>
-          <t>Twitter International Unlimited Company</t>
+          <t>Netflix International B.V.</t>
         </is>
       </c>
       <c r="E386" s="2036" t="inlineStr">
         <is>
-          <t>Disinformation, Fake news</t>
+          <t>Media freedom</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
     <row r="388">
       <c r="A388" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Daniel Braun</t>
+          <t>Monika Ladmanova, Kevin O'Connell</t>
         </is>
       </c>
       <c r="B388" s="2033" t="inlineStr">
@@ -17162,37 +17162,10 @@
       </c>
       <c r="D388" s="2036" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>Open Government Partnership Secretariat</t>
         </is>
       </c>
       <c r="E388" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EC digital priorities </t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="2036" t="inlineStr">
-        <is>
-          <t>Kevin O'Connell, Monika Ladmanova</t>
-        </is>
-      </c>
-      <c r="B389" s="2033" t="inlineStr">
-        <is>
-          <t>04/02/2020</t>
-        </is>
-      </c>
-      <c r="C389" s="2036" t="inlineStr">
-        <is>
-          <t>Brussels, Belgium</t>
-        </is>
-      </c>
-      <c r="D389" s="2036" t="inlineStr">
-        <is>
-          <t>Open Government Partnership Secretariat</t>
-        </is>
-      </c>
-      <c r="E389" s="2036" t="inlineStr">
         <is>
           <t>European Democracy Action Plan
 Transparency
@@ -17201,10 +17174,37 @@
         </is>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" s="2036" t="inlineStr">
+        <is>
+          <t>Wojtek Talko, Daniel Braun</t>
+        </is>
+      </c>
+      <c r="B389" s="2033" t="inlineStr">
+        <is>
+          <t>04/02/2020</t>
+        </is>
+      </c>
+      <c r="C389" s="2036" t="inlineStr">
+        <is>
+          <t>Brussels, Belgium</t>
+        </is>
+      </c>
+      <c r="D389" s="2036" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="E389" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC digital priorities </t>
+        </is>
+      </c>
+    </row>
     <row r="390">
       <c r="A390" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Monika Ladmanova</t>
         </is>
       </c>
       <c r="B390" s="2033" t="inlineStr">
@@ -17219,19 +17219,19 @@
       </c>
       <c r="D390" s="2036" t="inlineStr">
         <is>
-          <t>Stichting Free Press Unlimited</t>
+          <t>Open Society European Policy Institute</t>
         </is>
       </c>
       <c r="E390" s="2036" t="inlineStr">
         <is>
-          <t>Media freedom</t>
+          <t>European Democracy Action Plan</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B391" s="2033" t="inlineStr">
@@ -17246,19 +17246,19 @@
       </c>
       <c r="D391" s="2036" t="inlineStr">
         <is>
-          <t>Open Society European Policy Institute</t>
+          <t>Stichting Free Press Unlimited</t>
         </is>
       </c>
       <c r="E391" s="2036" t="inlineStr">
         <is>
-          <t>European Democracy Action Plan</t>
+          <t>Media freedom</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2036" t="inlineStr">
         <is>
-          <t>Eduard Hulicius</t>
+          <t>Marie Frenay, Daniel Braun, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B392" s="2033" t="inlineStr">
@@ -17273,19 +17273,20 @@
       </c>
       <c r="D392" s="2036" t="inlineStr">
         <is>
-          <t>Rasmussen Global</t>
+          <t>Centre for Democracy &amp; Technology, Europe</t>
         </is>
       </c>
       <c r="E392" s="2036" t="inlineStr">
         <is>
-          <t>European action plan on Democracy; Conference on future of EU</t>
+          <t>Political advertising and European Democracy Action Plan
+Digital policies and strategies</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Marie Frenay, Monika Ladmanova</t>
+          <t>Eduard Hulicius</t>
         </is>
       </c>
       <c r="B393" s="2033" t="inlineStr">
@@ -17300,13 +17301,12 @@
       </c>
       <c r="D393" s="2036" t="inlineStr">
         <is>
-          <t>Centre for Democracy &amp; Technology, Europe</t>
+          <t>Rasmussen Global</t>
         </is>
       </c>
       <c r="E393" s="2036" t="inlineStr">
         <is>
-          <t>Political advertising and European Democracy Action Plan
-Digital policies and strategies</t>
+          <t>European action plan on Democracy; Conference on future of EU</t>
         </is>
       </c>
     </row>

--- a/meetings_dumped/jourova_cabinet.xlsx
+++ b/meetings_dumped/jourova_cabinet.xlsx
@@ -6657,7 +6657,7 @@
     <row r="3">
       <c r="A3" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera, Simona Constantin, Zuzana Dorazilova</t>
+          <t>Alvaro De Elera, Zuzana Dorazilova, Simona Constantin</t>
         </is>
       </c>
       <c r="B3" s="2033" t="inlineStr">
@@ -6792,7 +6792,7 @@
     <row r="8">
       <c r="A8" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Marie Frenay</t>
+          <t>Alvaro De Elera</t>
         </is>
       </c>
       <c r="B8" s="2033" t="inlineStr">
@@ -6807,19 +6807,19 @@
       </c>
       <c r="D8" s="2036" t="inlineStr">
         <is>
-          <t>ZDF Europabüro Brüssel, EBU-UER (European Broadcasting Union)</t>
+          <t>Covington &amp; Burling LLP</t>
         </is>
       </c>
       <c r="E8" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Media Freedom Act</t>
+          <t xml:space="preserve"> info on Russian frozen assets for Ukraine's reconstruction</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera</t>
+          <t>Daniel Braun, Marie Frenay</t>
         </is>
       </c>
       <c r="B9" s="2033" t="inlineStr">
@@ -6834,12 +6834,12 @@
       </c>
       <c r="D9" s="2036" t="inlineStr">
         <is>
-          <t>Covington &amp; Burling LLP</t>
+          <t>ZDF Europabüro Brüssel, EBU-UER (European Broadcasting Union)</t>
         </is>
       </c>
       <c r="E9" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> info on Russian frozen assets for Ukraine's reconstruction</t>
+          <t xml:space="preserve"> European Media Freedom Act</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
     <row r="19">
       <c r="A19" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay, Simona Constantin</t>
+          <t>Simona Constantin, Marie Frenay</t>
         </is>
       </c>
       <c r="B19" s="2033" t="inlineStr">
@@ -7494,7 +7494,7 @@
     <row r="34">
       <c r="A34" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin</t>
+          <t>Eduard Hulicius</t>
         </is>
       </c>
       <c r="B34" s="2033" t="inlineStr">
@@ -7509,19 +7509,19 @@
       </c>
       <c r="D34" s="2036" t="inlineStr">
         <is>
-          <t>European Roundtable on Climate Change and Sustainable Transition</t>
+          <t>European Democracy Consulting</t>
         </is>
       </c>
       <c r="E34" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable Corporate Governance</t>
+          <t xml:space="preserve"> EU Political parties</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2036" t="inlineStr">
         <is>
-          <t>Eduard Hulicius</t>
+          <t>Simona Constantin</t>
         </is>
       </c>
       <c r="B35" s="2033" t="inlineStr">
@@ -7536,12 +7536,12 @@
       </c>
       <c r="D35" s="2036" t="inlineStr">
         <is>
-          <t>European Democracy Consulting</t>
+          <t>European Roundtable on Climate Change and Sustainable Transition</t>
         </is>
       </c>
       <c r="E35" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU Political parties</t>
+          <t xml:space="preserve"> Sustainable Corporate Governance</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
     <row r="40">
       <c r="A40" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Alvaro De Elera</t>
         </is>
       </c>
       <c r="B40" s="2033" t="inlineStr">
@@ -7667,24 +7667,24 @@
       </c>
       <c r="C40" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Video-conference call</t>
         </is>
       </c>
       <c r="D40" s="2036" t="inlineStr">
         <is>
-          <t>GLOBSEC</t>
+          <t>Trans-Atlantic Parliamentary Group</t>
         </is>
       </c>
       <c r="E40" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Disinformation</t>
+          <t xml:space="preserve"> Qatar gate/transparency matters </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B41" s="2033" t="inlineStr">
@@ -7694,17 +7694,17 @@
       </c>
       <c r="C41" s="2036" t="inlineStr">
         <is>
-          <t>Video-conference call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D41" s="2036" t="inlineStr">
         <is>
-          <t>Trans-Atlantic Parliamentary Group</t>
+          <t>GLOBSEC</t>
         </is>
       </c>
       <c r="E41" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qatar gate/transparency matters </t>
+          <t xml:space="preserve"> Disinformation</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
     <row r="45">
       <c r="A45" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Zuzana Dorazilova</t>
         </is>
       </c>
       <c r="B45" s="2033" t="inlineStr">
@@ -7807,19 +7807,20 @@
       </c>
       <c r="D45" s="2036" t="inlineStr">
         <is>
-          <t>Schibsted ASA</t>
+          <t>Center for Reproductive Rights, Inc.</t>
         </is>
       </c>
       <c r="E45" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Media Freedom Act</t>
+          <t xml:space="preserve"> Support of victims of gender based violence
+</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2036" t="inlineStr">
         <is>
-          <t>Zuzana Dorazilova</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B46" s="2033" t="inlineStr">
@@ -7834,13 +7835,12 @@
       </c>
       <c r="D46" s="2036" t="inlineStr">
         <is>
-          <t>Center for Reproductive Rights, Inc.</t>
+          <t>Schibsted ASA</t>
         </is>
       </c>
       <c r="E46" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Support of victims of gender based violence
-</t>
+          <t xml:space="preserve"> European Media Freedom Act</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
     <row r="48">
       <c r="A48" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Simona Constantin, Alvaro De Elera</t>
+          <t>Alvaro De Elera, Wojtek Talko, Simona Constantin</t>
         </is>
       </c>
       <c r="B48" s="2033" t="inlineStr">
@@ -8149,7 +8149,7 @@
     <row r="58">
       <c r="A58" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B58" s="2033" t="inlineStr">
@@ -8159,12 +8159,12 @@
       </c>
       <c r="C58" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>videoconference call</t>
         </is>
       </c>
       <c r="D58" s="2036" t="inlineStr">
         <is>
-          <t>World Justice Project</t>
+          <t>Academy of European Law</t>
         </is>
       </c>
       <c r="E58" s="2036" t="inlineStr">
@@ -8203,7 +8203,7 @@
     <row r="60">
       <c r="A60" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Alvaro De Elera</t>
         </is>
       </c>
       <c r="B60" s="2033" t="inlineStr">
@@ -8213,12 +8213,12 @@
       </c>
       <c r="C60" s="2036" t="inlineStr">
         <is>
-          <t>videoconference call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D60" s="2036" t="inlineStr">
         <is>
-          <t>Academy of European Law</t>
+          <t>World Justice Project</t>
         </is>
       </c>
       <c r="E60" s="2036" t="inlineStr">
@@ -8380,12 +8380,12 @@
       </c>
       <c r="D66" s="2036" t="inlineStr">
         <is>
-          <t>European Union of Jewish Students</t>
+          <t>STEM Ústav empirických výzkumů, z.ú.</t>
         </is>
       </c>
       <c r="E66" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Antisemitism</t>
+          <t xml:space="preserve"> Opinion polls, communication of EU topics</t>
         </is>
       </c>
     </row>
@@ -8407,12 +8407,12 @@
       </c>
       <c r="D67" s="2036" t="inlineStr">
         <is>
-          <t>STEM Ústav empirických výzkumů, z.ú.</t>
+          <t>Open Society European Policy Institute</t>
         </is>
       </c>
       <c r="E67" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Opinion polls, communication of EU topics</t>
+          <t xml:space="preserve"> European Democracy Action Plan</t>
         </is>
       </c>
     </row>
@@ -8434,12 +8434,12 @@
       </c>
       <c r="D68" s="2036" t="inlineStr">
         <is>
-          <t>Open Society European Policy Institute</t>
+          <t>European Union of Jewish Students</t>
         </is>
       </c>
       <c r="E68" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Democracy Action Plan</t>
+          <t xml:space="preserve"> Antisemitism</t>
         </is>
       </c>
     </row>
@@ -8515,12 +8515,12 @@
       </c>
       <c r="D71" s="2036" t="inlineStr">
         <is>
-          <t>EBU-UER (European Broadcasting Union)</t>
+          <t>Stiftung Familienunternehmen und Politik</t>
         </is>
       </c>
       <c r="E71" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Media Freedom Act</t>
+          <t xml:space="preserve"> Digital agenda</t>
         </is>
       </c>
     </row>
@@ -8542,19 +8542,19 @@
       </c>
       <c r="D72" s="2036" t="inlineStr">
         <is>
-          <t>Stiftung Familienunternehmen und Politik</t>
+          <t>EBU-UER (European Broadcasting Union)</t>
         </is>
       </c>
       <c r="E72" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital agenda</t>
+          <t xml:space="preserve"> European Media Freedom Act</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B73" s="2033" t="inlineStr">
@@ -8564,24 +8564,24 @@
       </c>
       <c r="C73" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>videoconference call</t>
         </is>
       </c>
       <c r="D73" s="2036" t="inlineStr">
         <is>
-          <t>Altana Technologies, Inc.</t>
+          <t>Committee to Protect Journalists</t>
         </is>
       </c>
       <c r="E73" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU-wide legislation on supply chain due diligence</t>
+          <t xml:space="preserve"> Protection of journalists, recent developments in Greece</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B74" s="2033" t="inlineStr">
@@ -8591,24 +8591,24 @@
       </c>
       <c r="C74" s="2036" t="inlineStr">
         <is>
-          <t>videoconference call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D74" s="2036" t="inlineStr">
         <is>
-          <t>Committee to Protect Journalists</t>
+          <t>Altana Technologies, Inc.</t>
         </is>
       </c>
       <c r="E74" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Protection of journalists, recent developments in Greece</t>
+          <t xml:space="preserve"> EU-wide legislation on supply chain due diligence</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B75" s="2033" t="inlineStr">
@@ -8618,17 +8618,17 @@
       </c>
       <c r="C75" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>videoconference call</t>
         </is>
       </c>
       <c r="D75" s="2036" t="inlineStr">
         <is>
-          <t>Progressive Policy Institute</t>
+          <t>EU DisinfoLab</t>
         </is>
       </c>
       <c r="E75" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Media</t>
+          <t xml:space="preserve"> Disinformation</t>
         </is>
       </c>
     </row>
@@ -8662,7 +8662,7 @@
     <row r="77">
       <c r="A77" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B77" s="2033" t="inlineStr">
@@ -8677,19 +8677,19 @@
       </c>
       <c r="D77" s="2036" t="inlineStr">
         <is>
-          <t>Kreab</t>
+          <t>Telefonica, S.A.</t>
         </is>
       </c>
       <c r="E77" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Political advertising</t>
+          <t xml:space="preserve"> Digital issues</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B78" s="2033" t="inlineStr">
@@ -8699,24 +8699,24 @@
       </c>
       <c r="C78" s="2036" t="inlineStr">
         <is>
-          <t>videoconference call</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D78" s="2036" t="inlineStr">
         <is>
-          <t>EU DisinfoLab</t>
+          <t>Progressive Policy Institute</t>
         </is>
       </c>
       <c r="E78" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Disinformation</t>
+          <t xml:space="preserve"> Media</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Wojtek Talko</t>
         </is>
       </c>
       <c r="B79" s="2033" t="inlineStr">
@@ -8731,12 +8731,12 @@
       </c>
       <c r="D79" s="2036" t="inlineStr">
         <is>
-          <t>Telefonica, S.A.</t>
+          <t>Kreab</t>
         </is>
       </c>
       <c r="E79" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital issues</t>
+          <t xml:space="preserve"> Political advertising</t>
         </is>
       </c>
     </row>
@@ -8880,58 +8880,59 @@
     <row r="85">
       <c r="A85" s="2036" t="inlineStr">
         <is>
+          <t>Renate Nikolay</t>
+        </is>
+      </c>
+      <c r="B85" s="2033" t="inlineStr">
+        <is>
+          <t>06/09/2022</t>
+        </is>
+      </c>
+      <c r="C85" s="2036" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D85" s="2036" t="inlineStr">
+        <is>
+          <t>Bundesverband der Deutschen Industrie e.V.</t>
+        </is>
+      </c>
+      <c r="E85" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Due diligence 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2036" t="inlineStr">
+        <is>
           <t>Simona Constantin</t>
         </is>
       </c>
-      <c r="B85" s="2033" t="inlineStr">
+      <c r="B86" s="2033" t="inlineStr">
         <is>
           <t>06/09/2022</t>
         </is>
       </c>
-      <c r="C85" s="2036" t="inlineStr">
+      <c r="C86" s="2036" t="inlineStr">
         <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="D85" s="2036" t="inlineStr">
+      <c r="D86" s="2036" t="inlineStr">
         <is>
           <t>Schwarz Unternehmenskommunikation International GmbH</t>
         </is>
       </c>
-      <c r="E85" s="2036" t="inlineStr">
+      <c r="E86" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Rule of law and the impact on the European Single Market,  Due Diligence and corporate responsibility in (global) supply chains, Data Protection / Privacy Shield
 </t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2036" t="inlineStr">
-        <is>
-          <t>Renate Nikolay</t>
-        </is>
-      </c>
-      <c r="B86" s="2033" t="inlineStr">
-        <is>
-          <t>06/09/2022</t>
-        </is>
-      </c>
-      <c r="C86" s="2036" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D86" s="2036" t="inlineStr">
-        <is>
-          <t>Deutscher Richterbund, Bund der Richterinnen und Richter, Staatsanwältinnen und Staatsanwälte</t>
-        </is>
-      </c>
-      <c r="E86" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Rule of Law</t>
-        </is>
-      </c>
-    </row>
     <row r="87">
       <c r="A87" s="2036" t="inlineStr">
         <is>
@@ -8950,13 +8951,12 @@
       </c>
       <c r="D87" s="2036" t="inlineStr">
         <is>
-          <t>Bundesverband der Deutschen Industrie e.V.</t>
+          <t>Deutscher Richterbund, Bund der Richterinnen und Richter, Staatsanwältinnen und Staatsanwälte</t>
         </is>
       </c>
       <c r="E87" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Due diligence 
-</t>
+          <t xml:space="preserve"> Rule of Law</t>
         </is>
       </c>
     </row>
@@ -9028,12 +9028,12 @@
       </c>
       <c r="C90" s="2036" t="inlineStr">
         <is>
-          <t>videoconference call</t>
+          <t>conference call</t>
         </is>
       </c>
       <c r="D90" s="2036" t="inlineStr">
         <is>
-          <t>News Media Europe</t>
+          <t>Association of Commercial Television and Video on Demand Services in Europe</t>
         </is>
       </c>
       <c r="E90" s="2036" t="inlineStr">
@@ -9055,12 +9055,12 @@
       </c>
       <c r="C91" s="2036" t="inlineStr">
         <is>
-          <t>conference call</t>
+          <t>videoconference call</t>
         </is>
       </c>
       <c r="D91" s="2036" t="inlineStr">
         <is>
-          <t>Association of Commercial Television and Video on Demand Services in Europe</t>
+          <t>News Media Europe</t>
         </is>
       </c>
       <c r="E91" s="2036" t="inlineStr">
@@ -10229,12 +10229,12 @@
       </c>
       <c r="D134" s="2036" t="inlineStr">
         <is>
-          <t>European Federation of Journalists</t>
+          <t>European Newspaper Publishers' Association, European Magazine Media Association</t>
         </is>
       </c>
       <c r="E134" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Protection of Jouronalists, disinformation</t>
+          <t xml:space="preserve"> EMFA</t>
         </is>
       </c>
     </row>
@@ -10256,12 +10256,12 @@
       </c>
       <c r="D135" s="2036" t="inlineStr">
         <is>
-          <t>European Newspaper Publishers' Association, European Magazine Media Association</t>
+          <t>European Federation of Journalists</t>
         </is>
       </c>
       <c r="E135" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EMFA</t>
+          <t xml:space="preserve"> Protection of Jouronalists, disinformation</t>
         </is>
       </c>
     </row>
@@ -10310,12 +10310,13 @@
       </c>
       <c r="D137" s="2036" t="inlineStr">
         <is>
-          <t>Deutsche Industrie- und Handelskammer</t>
+          <t>Bundesverband der Deutschen Industrie e.V.</t>
         </is>
       </c>
       <c r="E137" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Due diligence </t>
+          <t xml:space="preserve">Due diligence, collective redress, privacy shield 
+</t>
         </is>
       </c>
     </row>
@@ -10337,13 +10338,12 @@
       </c>
       <c r="D138" s="2036" t="inlineStr">
         <is>
-          <t>Bundesverband der Deutschen Industrie e.V.</t>
+          <t>Deutsche Industrie- und Handelskammer</t>
         </is>
       </c>
       <c r="E138" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Due diligence, collective redress, privacy shield 
-</t>
+          <t xml:space="preserve">Due diligence </t>
         </is>
       </c>
     </row>
@@ -10525,131 +10525,131 @@
       </c>
       <c r="C145" s="2036" t="inlineStr">
         <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D145" s="2036" t="inlineStr">
+        <is>
+          <t>World Leadership Alliance-Club de Madrid</t>
+        </is>
+      </c>
+      <c r="E145" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2036" t="inlineStr">
+        <is>
+          <t>Renate Nikolay</t>
+        </is>
+      </c>
+      <c r="B146" s="2033" t="inlineStr">
+        <is>
+          <t>05/04/2022</t>
+        </is>
+      </c>
+      <c r="C146" s="2036" t="inlineStr">
+        <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="D145" s="2036" t="inlineStr">
+      <c r="D146" s="2036" t="inlineStr">
         <is>
           <t>Cercle des Réseaux européens</t>
         </is>
       </c>
-      <c r="E145" s="2036" t="inlineStr">
+      <c r="E146" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Sustainable Corporate Governance, data economy 
 </t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2036" t="inlineStr">
-        <is>
-          <t>Renate Nikolay</t>
-        </is>
-      </c>
-      <c r="B146" s="2033" t="inlineStr">
-        <is>
-          <t>05/04/2022</t>
-        </is>
-      </c>
-      <c r="C146" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D146" s="2036" t="inlineStr">
-        <is>
-          <t>World Leadership Alliance-Club de Madrid</t>
-        </is>
-      </c>
-      <c r="E146" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> COFE</t>
-        </is>
-      </c>
-    </row>
     <row r="147">
       <c r="A147" s="2036" t="inlineStr">
         <is>
+          <t>Monika Ladmanova, Wojtek Talko</t>
+        </is>
+      </c>
+      <c r="B147" s="2033" t="inlineStr">
+        <is>
+          <t>04/04/2022</t>
+        </is>
+      </c>
+      <c r="C147" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D147" s="2036" t="inlineStr">
+        <is>
+          <t>Computer &amp; Communications Industry Association</t>
+        </is>
+      </c>
+      <c r="E147" s="2036" t="inlineStr">
+        <is>
+          <t>Political Advertising</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2036" t="inlineStr">
+        <is>
+          <t>Wojtek Talko, Alvaro De Elera</t>
+        </is>
+      </c>
+      <c r="B148" s="2033" t="inlineStr">
+        <is>
+          <t>04/04/2022</t>
+        </is>
+      </c>
+      <c r="C148" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D148" s="2036" t="inlineStr">
+        <is>
+          <t>Indra</t>
+        </is>
+      </c>
+      <c r="E148" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presentation of the activities of Indra in the context of electoral resilience
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2036" t="inlineStr">
+        <is>
           <t>Renate Nikolay</t>
         </is>
       </c>
-      <c r="B147" s="2033" t="inlineStr">
+      <c r="B149" s="2033" t="inlineStr">
         <is>
           <t>04/04/2022</t>
         </is>
       </c>
-      <c r="C147" s="2036" t="inlineStr">
+      <c r="C149" s="2036" t="inlineStr">
         <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="D147" s="2036" t="inlineStr">
+      <c r="D149" s="2036" t="inlineStr">
         <is>
           <t>Teknikföretagen</t>
         </is>
       </c>
-      <c r="E147" s="2036" t="inlineStr">
+      <c r="E149" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Sustainable Corporate Governance
  </t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2036" t="inlineStr">
-        <is>
-          <t>Monika Ladmanova, Wojtek Talko</t>
-        </is>
-      </c>
-      <c r="B148" s="2033" t="inlineStr">
-        <is>
-          <t>04/04/2022</t>
-        </is>
-      </c>
-      <c r="C148" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D148" s="2036" t="inlineStr">
-        <is>
-          <t>Computer &amp; Communications Industry Association</t>
-        </is>
-      </c>
-      <c r="E148" s="2036" t="inlineStr">
-        <is>
-          <t>Political Advertising</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2036" t="inlineStr">
-        <is>
-          <t>Alvaro De Elera, Wojtek Talko</t>
-        </is>
-      </c>
-      <c r="B149" s="2033" t="inlineStr">
-        <is>
-          <t>04/04/2022</t>
-        </is>
-      </c>
-      <c r="C149" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D149" s="2036" t="inlineStr">
-        <is>
-          <t>Indra</t>
-        </is>
-      </c>
-      <c r="E149" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presentation of the activities of Indra in the context of electoral resilience
-</t>
-        </is>
-      </c>
-    </row>
     <row r="150">
       <c r="A150" s="2036" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
     <row r="155">
       <c r="A155" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B155" s="2033" t="inlineStr">
@@ -10804,19 +10804,19 @@
       </c>
       <c r="D155" s="2036" t="inlineStr">
         <is>
-          <t>Deutsche Welle</t>
+          <t>Disinformation Index Ltd</t>
         </is>
       </c>
       <c r="E155" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media freedom Act </t>
+          <t xml:space="preserve"> Disinformation</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B156" s="2033" t="inlineStr">
@@ -10831,19 +10831,19 @@
       </c>
       <c r="D156" s="2036" t="inlineStr">
         <is>
-          <t>Disinformation Index Ltd</t>
+          <t>Deutsche Welle</t>
         </is>
       </c>
       <c r="E156" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Disinformation</t>
+          <t xml:space="preserve">Media freedom Act </t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay, Daniel Braun</t>
+          <t>Daniel Braun, Marie Frenay</t>
         </is>
       </c>
       <c r="B157" s="2033" t="inlineStr">
@@ -11091,59 +11091,59 @@
     <row r="166">
       <c r="A166" s="2036" t="inlineStr">
         <is>
+          <t>Monika Ladmanova, Wojtek Talko</t>
+        </is>
+      </c>
+      <c r="B166" s="2033" t="inlineStr">
+        <is>
+          <t>27/01/2022</t>
+        </is>
+      </c>
+      <c r="C166" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D166" s="2036" t="inlineStr">
+        <is>
+          <t>Interactive Advertising Bureau Europe</t>
+        </is>
+      </c>
+      <c r="E166" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Political advertising 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2036" t="inlineStr">
+        <is>
           <t>Renate Nikolay</t>
         </is>
       </c>
-      <c r="B166" s="2033" t="inlineStr">
+      <c r="B167" s="2033" t="inlineStr">
         <is>
           <t>27/01/2022</t>
         </is>
       </c>
-      <c r="C166" s="2036" t="inlineStr">
+      <c r="C167" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D166" s="2036" t="inlineStr">
+      <c r="D167" s="2036" t="inlineStr">
         <is>
           <t>Europäische Akademie für Informationsfreiheit und Datenschutz</t>
         </is>
       </c>
-      <c r="E166" s="2036" t="inlineStr">
+      <c r="E167" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">EU Data strategy
 </t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2036" t="inlineStr">
-        <is>
-          <t>Monika Ladmanova, Wojtek Talko</t>
-        </is>
-      </c>
-      <c r="B167" s="2033" t="inlineStr">
-        <is>
-          <t>27/01/2022</t>
-        </is>
-      </c>
-      <c r="C167" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D167" s="2036" t="inlineStr">
-        <is>
-          <t>Interactive Advertising Bureau Europe</t>
-        </is>
-      </c>
-      <c r="E167" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Political advertising 
-</t>
-        </is>
-      </c>
-    </row>
     <row r="168">
       <c r="A168" s="2036" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
     <row r="171">
       <c r="A171" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Daniel Braun</t>
+          <t>Daniel Braun, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B171" s="2033" t="inlineStr">
@@ -11517,24 +11517,25 @@
       </c>
       <c r="C181" s="2036" t="inlineStr">
         <is>
-          <t>Cologne</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D181" s="2036" t="inlineStr">
         <is>
-          <t>Allianz SE</t>
+          <t>Meta Platforms Ireland Limited and its various subsidiaries</t>
         </is>
       </c>
       <c r="E181" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Data protection</t>
+          <t xml:space="preserve">Digital files
+</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B182" s="2033" t="inlineStr">
@@ -11544,25 +11545,24 @@
       </c>
       <c r="C182" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="D182" s="2036" t="inlineStr">
         <is>
-          <t>Meta Platforms Ireland Limited and its various subsidiaries</t>
+          <t>Asociace pro mezinárodní otázky, z.s.</t>
         </is>
       </c>
       <c r="E182" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digital files
-</t>
+          <t xml:space="preserve">Disinformation, Foreign influence </t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B183" s="2033" t="inlineStr">
@@ -11572,17 +11572,17 @@
       </c>
       <c r="C183" s="2036" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>Cologne</t>
         </is>
       </c>
       <c r="D183" s="2036" t="inlineStr">
         <is>
-          <t>Asociace pro mezinárodní otázky, z.s.</t>
+          <t>Allianz SE</t>
         </is>
       </c>
       <c r="E183" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Disinformation, Foreign influence </t>
+          <t xml:space="preserve"> Data protection</t>
         </is>
       </c>
     </row>
@@ -11725,7 +11725,7 @@
     <row r="189">
       <c r="A189" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Monika Ladmanova, Wojtek Talko</t>
+          <t>Daniel Braun, Wojtek Talko, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B189" s="2033" t="inlineStr">
@@ -11789,17 +11789,17 @@
       </c>
       <c r="C191" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D191" s="2036" t="inlineStr">
         <is>
-          <t>Heinrich Böll Stiftung e.V.</t>
+          <t>Vodafone Stiftung Deutschland gGmbH</t>
         </is>
       </c>
       <c r="E191" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital rulebook, DSA, DMA</t>
+          <t xml:space="preserve"> Data flows, digital rulebook,privacy</t>
         </is>
       </c>
     </row>
@@ -11816,17 +11816,17 @@
       </c>
       <c r="C192" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D192" s="2036" t="inlineStr">
         <is>
-          <t>Vodafone Stiftung Deutschland gGmbH</t>
+          <t>Heinrich Böll Stiftung e.V.</t>
         </is>
       </c>
       <c r="E192" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Data flows, digital rulebook,privacy</t>
+          <t xml:space="preserve"> Digital rulebook, DSA, DMA</t>
         </is>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
     <row r="197">
       <c r="A197" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Monika Ladmanova</t>
+          <t>Monika Ladmanova, Wojtek Talko</t>
         </is>
       </c>
       <c r="B197" s="2033" t="inlineStr">
@@ -11968,7 +11968,7 @@
     <row r="198">
       <c r="A198" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B198" s="2033" t="inlineStr">
@@ -11978,24 +11978,24 @@
       </c>
       <c r="C198" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D198" s="2036" t="inlineStr">
         <is>
-          <t>Reporters sans frontières</t>
+          <t>Deutsche Post DHL Group</t>
         </is>
       </c>
       <c r="E198" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SLAPP</t>
+          <t xml:space="preserve"> Sustainable Corporate Governance</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Simona Constantin</t>
         </is>
       </c>
       <c r="B199" s="2033" t="inlineStr">
@@ -12005,24 +12005,24 @@
       </c>
       <c r="C199" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D199" s="2036" t="inlineStr">
         <is>
-          <t>ITI - The Information Technology Industry Council</t>
+          <t>Reporters sans frontières</t>
         </is>
       </c>
       <c r="E199" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Privacy, data flow,transatlantic cooperation</t>
+          <t xml:space="preserve"> SLAPP</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B200" s="2033" t="inlineStr">
@@ -12032,24 +12032,24 @@
       </c>
       <c r="C200" s="2036" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D200" s="2036" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL Group</t>
+          <t>Kofi Annan Foundation</t>
         </is>
       </c>
       <c r="E200" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sustainable Corporate Governance</t>
+          <t xml:space="preserve"> EDAP</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B201" s="2033" t="inlineStr">
@@ -12059,17 +12059,17 @@
       </c>
       <c r="C201" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D201" s="2036" t="inlineStr">
         <is>
-          <t>Kofi Annan Foundation</t>
+          <t>ITI - The Information Technology Industry Council</t>
         </is>
       </c>
       <c r="E201" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EDAP</t>
+          <t xml:space="preserve"> Privacy, data flow,transatlantic cooperation</t>
         </is>
       </c>
     </row>
@@ -12103,7 +12103,7 @@
     <row r="203">
       <c r="A203" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B203" s="2033" t="inlineStr">
@@ -12118,19 +12118,19 @@
       </c>
       <c r="D203" s="2036" t="inlineStr">
         <is>
-          <t>DIGITALEUROPE</t>
+          <t>European University Institute</t>
         </is>
       </c>
       <c r="E203" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Data flows, digital decade </t>
+          <t xml:space="preserve">Fighting misinformation online event </t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B204" s="2033" t="inlineStr">
@@ -12140,24 +12140,24 @@
       </c>
       <c r="C204" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="D204" s="2036" t="inlineStr">
         <is>
-          <t>European University Institute</t>
+          <t>Committee to Protect Journalists</t>
         </is>
       </c>
       <c r="E204" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fighting misinformation online event </t>
+          <t xml:space="preserve"> Safety of journalists</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B205" s="2033" t="inlineStr">
@@ -12167,24 +12167,24 @@
       </c>
       <c r="C205" s="2036" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D205" s="2036" t="inlineStr">
         <is>
-          <t>Committee to Protect Journalists</t>
+          <t>DIGITALEUROPE</t>
         </is>
       </c>
       <c r="E205" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Safety of journalists</t>
+          <t xml:space="preserve">Data flows, digital decade </t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin</t>
+          <t>Wojtek Talko</t>
         </is>
       </c>
       <c r="B206" s="2033" t="inlineStr">
@@ -12194,24 +12194,24 @@
       </c>
       <c r="C206" s="2036" t="inlineStr">
         <is>
-          <t>Videocongerence</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D206" s="2036" t="inlineStr">
         <is>
-          <t>Principles for Responsible Investment</t>
+          <t>European Internet Services Providers Association</t>
         </is>
       </c>
       <c r="E206" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sustainable Corporate Governance </t>
+          <t xml:space="preserve"> Digital policies</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B207" s="2033" t="inlineStr">
@@ -12221,24 +12221,24 @@
       </c>
       <c r="C207" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="D207" s="2036" t="inlineStr">
         <is>
-          <t>European Internet Services Providers Association</t>
+          <t>European University Institute</t>
         </is>
       </c>
       <c r="E207" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital policies</t>
+          <t xml:space="preserve"> Media freedom &amp; pluralism</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Simona Constantin</t>
         </is>
       </c>
       <c r="B208" s="2033" t="inlineStr">
@@ -12248,17 +12248,17 @@
       </c>
       <c r="C208" s="2036" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Videocongerence</t>
         </is>
       </c>
       <c r="D208" s="2036" t="inlineStr">
         <is>
-          <t>European University Institute</t>
+          <t>Principles for Responsible Investment</t>
         </is>
       </c>
       <c r="E208" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Media freedom &amp; pluralism</t>
+          <t xml:space="preserve">Sustainable Corporate Governance </t>
         </is>
       </c>
     </row>
@@ -12541,7 +12541,7 @@
     <row r="219">
       <c r="A219" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Wojtek Talko, Daniel Braun</t>
+          <t>Wojtek Talko, Monika Ladmanova, Daniel Braun</t>
         </is>
       </c>
       <c r="B219" s="2033" t="inlineStr">
@@ -12624,7 +12624,7 @@
     <row r="222">
       <c r="A222" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B222" s="2033" t="inlineStr">
@@ -12639,19 +12639,19 @@
       </c>
       <c r="D222" s="2036" t="inlineStr">
         <is>
-          <t>Avaaz Foundation</t>
+          <t>Heinrich Böll Stiftung e.V.</t>
         </is>
       </c>
       <c r="E222" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Code of Practice on disinformation </t>
+          <t>Disinformation</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B223" s="2033" t="inlineStr">
@@ -12666,74 +12666,74 @@
       </c>
       <c r="D223" s="2036" t="inlineStr">
         <is>
-          <t>Heinrich Böll Stiftung e.V.</t>
+          <t>Avaaz Foundation</t>
         </is>
       </c>
       <c r="E223" s="2036" t="inlineStr">
         <is>
-          <t>Disinformation</t>
+          <t xml:space="preserve">Code of Practice on disinformation </t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2036" t="inlineStr">
         <is>
+          <t>Renate Nikolay</t>
+        </is>
+      </c>
+      <c r="B224" s="2033" t="inlineStr">
+        <is>
+          <t>16/06/2021</t>
+        </is>
+      </c>
+      <c r="C224" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D224" s="2036" t="inlineStr">
+        <is>
+          <t>Academy of European Law</t>
+        </is>
+      </c>
+      <c r="E224" s="2036" t="inlineStr">
+        <is>
+          <t>European Media Law</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2036" t="inlineStr">
+        <is>
           <t>Daniel Braun</t>
         </is>
       </c>
-      <c r="B224" s="2033" t="inlineStr">
+      <c r="B225" s="2033" t="inlineStr">
         <is>
           <t>16/06/2021</t>
         </is>
       </c>
-      <c r="C224" s="2036" t="inlineStr">
+      <c r="C225" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D224" s="2036" t="inlineStr">
+      <c r="D225" s="2036" t="inlineStr">
         <is>
           <t>GLOBSEC</t>
         </is>
       </c>
-      <c r="E224" s="2036" t="inlineStr">
+      <c r="E225" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Resilience in a Transatlantic and Democratic Information Space
 </t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2036" t="inlineStr">
-        <is>
-          <t>Renate Nikolay</t>
-        </is>
-      </c>
-      <c r="B225" s="2033" t="inlineStr">
-        <is>
-          <t>16/06/2021</t>
-        </is>
-      </c>
-      <c r="C225" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D225" s="2036" t="inlineStr">
-        <is>
-          <t>Academy of European Law</t>
-        </is>
-      </c>
-      <c r="E225" s="2036" t="inlineStr">
-        <is>
-          <t>European Media Law</t>
-        </is>
-      </c>
-    </row>
     <row r="226">
       <c r="A226" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Monika Ladmanova</t>
+          <t>Monika Ladmanova, Wojtek Talko</t>
         </is>
       </c>
       <c r="B226" s="2033" t="inlineStr">
@@ -12868,7 +12868,7 @@
     <row r="231">
       <c r="A231" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Wojtek Talko</t>
+          <t>Wojtek Talko, Daniel Braun</t>
         </is>
       </c>
       <c r="B231" s="2033" t="inlineStr">
@@ -12883,19 +12883,19 @@
       </c>
       <c r="D231" s="2036" t="inlineStr">
         <is>
-          <t>European Network of National Human Rights Institutions</t>
+          <t>TikTok Technology Ltd</t>
         </is>
       </c>
       <c r="E231" s="2036" t="inlineStr">
         <is>
-          <t>Fundamental rights</t>
+          <t>Code of Practice on disinformation</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin</t>
+          <t>Wojtek Talko, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B232" s="2033" t="inlineStr">
@@ -12910,19 +12910,19 @@
       </c>
       <c r="D232" s="2036" t="inlineStr">
         <is>
-          <t>Confederation of Swedish Enterprise</t>
+          <t>European Network of National Human Rights Institutions</t>
         </is>
       </c>
       <c r="E232" s="2036" t="inlineStr">
         <is>
-          <t>Sustainable Corporate Governance</t>
+          <t>Fundamental rights</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Wojtek Talko</t>
+          <t>Simona Constantin</t>
         </is>
       </c>
       <c r="B233" s="2033" t="inlineStr">
@@ -12937,12 +12937,12 @@
       </c>
       <c r="D233" s="2036" t="inlineStr">
         <is>
-          <t>TikTok Technology Ltd</t>
+          <t>Confederation of Swedish Enterprise</t>
         </is>
       </c>
       <c r="E233" s="2036" t="inlineStr">
         <is>
-          <t>Code of Practice on disinformation</t>
+          <t>Sustainable Corporate Governance</t>
         </is>
       </c>
     </row>
@@ -13004,7 +13004,7 @@
     <row r="236">
       <c r="A236" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay, Daniel Braun</t>
+          <t>Daniel Braun, Marie Frenay</t>
         </is>
       </c>
       <c r="B236" s="2033" t="inlineStr">
@@ -13059,58 +13059,58 @@
     <row r="238">
       <c r="A238" s="2036" t="inlineStr">
         <is>
+          <t>Marie Frenay</t>
+        </is>
+      </c>
+      <c r="B238" s="2033" t="inlineStr">
+        <is>
+          <t>20/05/2021</t>
+        </is>
+      </c>
+      <c r="C238" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D238" s="2036" t="inlineStr">
+        <is>
+          <t>News/Media Alliance</t>
+        </is>
+      </c>
+      <c r="E238" s="2036" t="inlineStr">
+        <is>
+          <t>Media freedom act</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2036" t="inlineStr">
+        <is>
           <t>Alvaro De Elera</t>
         </is>
       </c>
-      <c r="B238" s="2033" t="inlineStr">
+      <c r="B239" s="2033" t="inlineStr">
         <is>
           <t>20/05/2021</t>
         </is>
       </c>
-      <c r="C238" s="2036" t="inlineStr">
+      <c r="C239" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D238" s="2036" t="inlineStr">
+      <c r="D239" s="2036" t="inlineStr">
         <is>
           <t>Asociación de Profesionales de las Relaciones Institucionales</t>
         </is>
       </c>
-      <c r="E238" s="2036" t="inlineStr">
+      <c r="E239" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Transparency and accountability policies in the EU
 </t>
         </is>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2036" t="inlineStr">
-        <is>
-          <t>Marie Frenay</t>
-        </is>
-      </c>
-      <c r="B239" s="2033" t="inlineStr">
-        <is>
-          <t>20/05/2021</t>
-        </is>
-      </c>
-      <c r="C239" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D239" s="2036" t="inlineStr">
-        <is>
-          <t>News/Media Alliance</t>
-        </is>
-      </c>
-      <c r="E239" s="2036" t="inlineStr">
-        <is>
-          <t>Media freedom act</t>
-        </is>
-      </c>
-    </row>
     <row r="240">
       <c r="A240" s="2036" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
     <row r="241">
       <c r="A241" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Alvaro De Elera</t>
+          <t>Alvaro De Elera, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B241" s="2033" t="inlineStr">
@@ -13250,7 +13250,7 @@
     <row r="245">
       <c r="A245" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Alvaro De Elera</t>
+          <t>Alvaro De Elera</t>
         </is>
       </c>
       <c r="B245" s="2033" t="inlineStr">
@@ -13265,19 +13265,19 @@
       </c>
       <c r="D245" s="2036" t="inlineStr">
         <is>
-          <t>European Network of National Human Rights Institutions</t>
+          <t>Athenora Consulting</t>
         </is>
       </c>
       <c r="E245" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rule of Law</t>
+          <t xml:space="preserve"> The new transparency register</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera</t>
+          <t>Alvaro De Elera, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B246" s="2033" t="inlineStr">
@@ -13292,12 +13292,12 @@
       </c>
       <c r="D246" s="2036" t="inlineStr">
         <is>
-          <t>Athenora Consulting</t>
+          <t>European Network of National Human Rights Institutions</t>
         </is>
       </c>
       <c r="E246" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The new transparency register</t>
+          <t xml:space="preserve"> Rule of Law</t>
         </is>
       </c>
     </row>
@@ -13359,7 +13359,7 @@
     <row r="249">
       <c r="A249" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Wojtek Talko, Marie Frenay</t>
+          <t>Daniel Braun, Marie Frenay, Wojtek Talko</t>
         </is>
       </c>
       <c r="B249" s="2033" t="inlineStr">
@@ -13387,87 +13387,87 @@
     <row r="250">
       <c r="A250" s="2036" t="inlineStr">
         <is>
+          <t>Marie Frenay</t>
+        </is>
+      </c>
+      <c r="B250" s="2033" t="inlineStr">
+        <is>
+          <t>26/04/2021</t>
+        </is>
+      </c>
+      <c r="C250" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D250" s="2036" t="inlineStr">
+        <is>
+          <t>International Press Institute</t>
+        </is>
+      </c>
+      <c r="E250" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Media freedom and media pluralism
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2036" t="inlineStr">
+        <is>
           <t>Monika Ladmanova</t>
         </is>
       </c>
-      <c r="B250" s="2033" t="inlineStr">
+      <c r="B251" s="2033" t="inlineStr">
         <is>
           <t>26/04/2021</t>
         </is>
       </c>
-      <c r="C250" s="2036" t="inlineStr">
+      <c r="C251" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D250" s="2036" t="inlineStr">
+      <c r="D251" s="2036" t="inlineStr">
         <is>
           <t>Prospera International Network of Women's Funds</t>
         </is>
       </c>
-      <c r="E250" s="2036" t="inlineStr">
+      <c r="E251" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Gender equality
   </t>
         </is>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2036" t="inlineStr">
+    <row r="252">
+      <c r="A252" s="2036" t="inlineStr">
         <is>
           <t>Marie Frenay</t>
         </is>
       </c>
-      <c r="B251" s="2033" t="inlineStr">
+      <c r="B252" s="2033" t="inlineStr">
         <is>
           <t>26/04/2021</t>
         </is>
       </c>
-      <c r="C251" s="2036" t="inlineStr">
+      <c r="C252" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D251" s="2036" t="inlineStr">
-        <is>
-          <t>International Press Institute</t>
-        </is>
-      </c>
-      <c r="E251" s="2036" t="inlineStr">
+      <c r="D252" s="2036" t="inlineStr">
+        <is>
+          <t>European Newspaper Publishers' Association</t>
+        </is>
+      </c>
+      <c r="E252" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Media freedom and media pluralism
  </t>
         </is>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2036" t="inlineStr">
-        <is>
-          <t>Marie Frenay</t>
-        </is>
-      </c>
-      <c r="B252" s="2033" t="inlineStr">
-        <is>
-          <t>26/04/2021</t>
-        </is>
-      </c>
-      <c r="C252" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D252" s="2036" t="inlineStr">
-        <is>
-          <t>European Newspaper Publishers' Association</t>
-        </is>
-      </c>
-      <c r="E252" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Media freedom and media pluralism
- </t>
-        </is>
-      </c>
-    </row>
     <row r="253">
       <c r="A253" s="2036" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
     <row r="256">
       <c r="A256" s="2036" t="inlineStr">
         <is>
-          <t>Alvaro De Elera, Simona Constantin, Marie Frenay</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B256" s="2033" t="inlineStr">
@@ -13563,48 +13563,48 @@
       </c>
       <c r="C256" s="2036" t="inlineStr">
         <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="D256" s="2036" t="inlineStr">
+        <is>
+          <t>EUROPE'S MEDIALAB (Fondation EURACTIV)</t>
+        </is>
+      </c>
+      <c r="E256" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Media freedom and media pluralism</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2036" t="inlineStr">
+        <is>
+          <t>Simona Constantin, Marie Frenay, Alvaro De Elera</t>
+        </is>
+      </c>
+      <c r="B257" s="2033" t="inlineStr">
+        <is>
+          <t>21/04/2021</t>
+        </is>
+      </c>
+      <c r="C257" s="2036" t="inlineStr">
+        <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D256" s="2036" t="inlineStr">
+      <c r="D257" s="2036" t="inlineStr">
         <is>
           <t>Open Society European Policy Institute</t>
         </is>
       </c>
-      <c r="E256" s="2036" t="inlineStr">
+      <c r="E257" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Democracy, rule of law, media aspects, role of civil society
  </t>
         </is>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2036" t="inlineStr">
-        <is>
-          <t>Marie Frenay</t>
-        </is>
-      </c>
-      <c r="B257" s="2033" t="inlineStr">
-        <is>
-          <t>21/04/2021</t>
-        </is>
-      </c>
-      <c r="C257" s="2036" t="inlineStr">
-        <is>
-          <t>call</t>
-        </is>
-      </c>
-      <c r="D257" s="2036" t="inlineStr">
-        <is>
-          <t>EUROPE'S MEDIALAB (Fondation EURACTIV)</t>
-        </is>
-      </c>
-      <c r="E257" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Media freedom and media pluralism</t>
-        </is>
-      </c>
-    </row>
     <row r="258">
       <c r="A258" s="2036" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
     <row r="261">
       <c r="A261" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B261" s="2033" t="inlineStr">
@@ -13701,24 +13701,24 @@
       </c>
       <c r="C261" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>call</t>
         </is>
       </c>
       <c r="D261" s="2036" t="inlineStr">
         <is>
-          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, European Center for Constitutional and Human Rights, European Coalition for Corporate Justice</t>
+          <t>European Federation of Journalists</t>
         </is>
       </c>
       <c r="E261" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EU Sustainable Corporate Governance &amp; Corporate Due Diligence </t>
+          <t xml:space="preserve"> Media literacy</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Simona Constantin</t>
         </is>
       </c>
       <c r="B262" s="2033" t="inlineStr">
@@ -13728,24 +13728,24 @@
       </c>
       <c r="C262" s="2036" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D262" s="2036" t="inlineStr">
         <is>
-          <t>European Federation of Journalists</t>
+          <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, European Center for Constitutional and Human Rights, European Coalition for Corporate Justice</t>
         </is>
       </c>
       <c r="E262" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Media literacy</t>
+          <t xml:space="preserve"> EU Sustainable Corporate Governance &amp; Corporate Due Diligence </t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Wojtek Talko, Marie Frenay</t>
+          <t>Wojtek Talko, Daniel Braun, Marie Frenay</t>
         </is>
       </c>
       <c r="B263" s="2033" t="inlineStr">
@@ -13881,7 +13881,7 @@
     <row r="268">
       <c r="A268" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B268" s="2033" t="inlineStr">
@@ -13891,24 +13891,24 @@
       </c>
       <c r="C268" s="2036" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D268" s="2036" t="inlineStr">
         <is>
-          <t>Reporters sans frontières</t>
+          <t>Evropské hodnoty z.s.</t>
         </is>
       </c>
       <c r="E268" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Developments media situation in HU, PL, SL</t>
+          <t xml:space="preserve"> Disinformation</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B269" s="2033" t="inlineStr">
@@ -13918,75 +13918,75 @@
       </c>
       <c r="C269" s="2036" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>call</t>
         </is>
       </c>
       <c r="D269" s="2036" t="inlineStr">
         <is>
-          <t>Evropské hodnoty z.s.</t>
+          <t>Reporters sans frontières</t>
         </is>
       </c>
       <c r="E269" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Disinformation</t>
+          <t xml:space="preserve"> Developments media situation in HU, PL, SL</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2036" t="inlineStr">
         <is>
+          <t>Marie Frenay</t>
+        </is>
+      </c>
+      <c r="B270" s="2033" t="inlineStr">
+        <is>
+          <t>26/02/2021</t>
+        </is>
+      </c>
+      <c r="C270" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D270" s="2036" t="inlineStr">
+        <is>
+          <t>Concordia Sozialprojekte Gemeinnützige Privatstiftung</t>
+        </is>
+      </c>
+      <c r="E270" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Media freedom </t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2036" t="inlineStr">
+        <is>
           <t>Alvaro De Elera</t>
         </is>
       </c>
-      <c r="B270" s="2033" t="inlineStr">
+      <c r="B271" s="2033" t="inlineStr">
         <is>
           <t>26/02/2021</t>
         </is>
       </c>
-      <c r="C270" s="2036" t="inlineStr">
+      <c r="C271" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D270" s="2036" t="inlineStr">
+      <c r="D271" s="2036" t="inlineStr">
         <is>
           <t>Real Instituto Elcano</t>
         </is>
       </c>
-      <c r="E270" s="2036" t="inlineStr">
+      <c r="E271" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Spanish Stakeholder Forum on Future of Europe and differentiated integration
 </t>
         </is>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2036" t="inlineStr">
-        <is>
-          <t>Marie Frenay</t>
-        </is>
-      </c>
-      <c r="B271" s="2033" t="inlineStr">
-        <is>
-          <t>26/02/2021</t>
-        </is>
-      </c>
-      <c r="C271" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D271" s="2036" t="inlineStr">
-        <is>
-          <t>Concordia Sozialprojekte Gemeinnützige Privatstiftung</t>
-        </is>
-      </c>
-      <c r="E271" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Media freedom </t>
-        </is>
-      </c>
-    </row>
     <row r="272">
       <c r="A272" s="2036" t="inlineStr">
         <is>
@@ -14180,58 +14180,58 @@
     <row r="279">
       <c r="A279" s="2036" t="inlineStr">
         <is>
+          <t>Daniel Braun</t>
+        </is>
+      </c>
+      <c r="B279" s="2033" t="inlineStr">
+        <is>
+          <t>05/02/2021</t>
+        </is>
+      </c>
+      <c r="C279" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D279" s="2036" t="inlineStr">
+        <is>
+          <t>Cogniware, s.r.o.</t>
+        </is>
+      </c>
+      <c r="E279" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fake news recognition</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2036" t="inlineStr">
+        <is>
           <t>Renate Nikolay</t>
         </is>
       </c>
-      <c r="B279" s="2033" t="inlineStr">
+      <c r="B280" s="2033" t="inlineStr">
         <is>
           <t>05/02/2021</t>
         </is>
       </c>
-      <c r="C279" s="2036" t="inlineStr">
+      <c r="C280" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D279" s="2036" t="inlineStr">
+      <c r="D280" s="2036" t="inlineStr">
         <is>
           <t>WEInvest</t>
         </is>
       </c>
-      <c r="E279" s="2036" t="inlineStr">
+      <c r="E280" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Women empowerment in finance
  </t>
         </is>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2036" t="inlineStr">
-        <is>
-          <t>Daniel Braun</t>
-        </is>
-      </c>
-      <c r="B280" s="2033" t="inlineStr">
-        <is>
-          <t>05/02/2021</t>
-        </is>
-      </c>
-      <c r="C280" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D280" s="2036" t="inlineStr">
-        <is>
-          <t>Cogniware, s.r.o.</t>
-        </is>
-      </c>
-      <c r="E280" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fake news recognition</t>
-        </is>
-      </c>
-    </row>
     <row r="281">
       <c r="A281" s="2036" t="inlineStr">
         <is>
@@ -14316,59 +14316,59 @@
     <row r="284">
       <c r="A284" s="2036" t="inlineStr">
         <is>
+          <t>Alvaro De Elera</t>
+        </is>
+      </c>
+      <c r="B284" s="2033" t="inlineStr">
+        <is>
+          <t>28/01/2021</t>
+        </is>
+      </c>
+      <c r="C284" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D284" s="2036" t="inlineStr">
+        <is>
+          <t>Indra</t>
+        </is>
+      </c>
+      <c r="E284" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Misinformation in electoral processes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2036" t="inlineStr">
+        <is>
           <t>Daniel Braun</t>
         </is>
       </c>
-      <c r="B284" s="2033" t="inlineStr">
+      <c r="B285" s="2033" t="inlineStr">
         <is>
           <t>28/01/2021</t>
         </is>
       </c>
-      <c r="C284" s="2036" t="inlineStr">
+      <c r="C285" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D284" s="2036" t="inlineStr">
+      <c r="D285" s="2036" t="inlineStr">
         <is>
           <t>Workday</t>
         </is>
       </c>
-      <c r="E284" s="2036" t="inlineStr">
+      <c r="E285" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">CPDP Conference panel on AI regulation
 </t>
         </is>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2036" t="inlineStr">
-        <is>
-          <t>Alvaro De Elera</t>
-        </is>
-      </c>
-      <c r="B285" s="2033" t="inlineStr">
-        <is>
-          <t>28/01/2021</t>
-        </is>
-      </c>
-      <c r="C285" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D285" s="2036" t="inlineStr">
-        <is>
-          <t>Indra</t>
-        </is>
-      </c>
-      <c r="E285" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Misinformation in electoral processes
-</t>
-        </is>
-      </c>
-    </row>
     <row r="286">
       <c r="A286" s="2036" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
     <row r="288">
       <c r="A288" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin, Marie Frenay, Alvaro De Elera</t>
+          <t>Marie Frenay, Simona Constantin, Alvaro De Elera</t>
         </is>
       </c>
       <c r="B288" s="2033" t="inlineStr">
@@ -14538,142 +14538,142 @@
     <row r="292">
       <c r="A292" s="2036" t="inlineStr">
         <is>
+          <t>Daniel Braun</t>
+        </is>
+      </c>
+      <c r="B292" s="2033" t="inlineStr">
+        <is>
+          <t>20/01/2021</t>
+        </is>
+      </c>
+      <c r="C292" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D292" s="2036" t="inlineStr">
+        <is>
+          <t>Twitter International Unlimited Company</t>
+        </is>
+      </c>
+      <c r="E292" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDAP, Code of Practice
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2036" t="inlineStr">
+        <is>
+          <t>Renate Nikolay</t>
+        </is>
+      </c>
+      <c r="B293" s="2033" t="inlineStr">
+        <is>
+          <t>20/01/2021</t>
+        </is>
+      </c>
+      <c r="C293" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D293" s="2036" t="inlineStr">
+        <is>
+          <t>Vodafone Belgium SA</t>
+        </is>
+      </c>
+      <c r="E293" s="2036" t="inlineStr">
+        <is>
+          <t>Data protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2036" t="inlineStr">
+        <is>
           <t>Alvaro De Elera</t>
         </is>
       </c>
-      <c r="B292" s="2033" t="inlineStr">
+      <c r="B294" s="2033" t="inlineStr">
         <is>
           <t>20/01/2021</t>
         </is>
       </c>
-      <c r="C292" s="2036" t="inlineStr">
+      <c r="C294" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D292" s="2036" t="inlineStr">
+      <c r="D294" s="2036" t="inlineStr">
         <is>
           <t>Central European University</t>
         </is>
       </c>
-      <c r="E292" s="2036" t="inlineStr">
+      <c r="E294" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">Rule of Law
 </t>
         </is>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2036" t="inlineStr">
+    <row r="295">
+      <c r="A295" s="2036" t="inlineStr">
+        <is>
+          <t>Simona Constantin, Monika Ladmanova</t>
+        </is>
+      </c>
+      <c r="B295" s="2033" t="inlineStr">
+        <is>
+          <t>19/01/2021</t>
+        </is>
+      </c>
+      <c r="C295" s="2036" t="inlineStr">
+        <is>
+          <t>Videoconference</t>
+        </is>
+      </c>
+      <c r="D295" s="2036" t="inlineStr">
+        <is>
+          <t>Center for Reproductive Rights, Inc.</t>
+        </is>
+      </c>
+      <c r="E295" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rule of law and human rights concerns in Poland
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2036" t="inlineStr">
         <is>
           <t>Daniel Braun</t>
         </is>
       </c>
-      <c r="B293" s="2033" t="inlineStr">
-        <is>
-          <t>20/01/2021</t>
-        </is>
-      </c>
-      <c r="C293" s="2036" t="inlineStr">
+      <c r="B296" s="2033" t="inlineStr">
+        <is>
+          <t>19/01/2021</t>
+        </is>
+      </c>
+      <c r="C296" s="2036" t="inlineStr">
         <is>
           <t>Videoconference</t>
         </is>
       </c>
-      <c r="D293" s="2036" t="inlineStr">
-        <is>
-          <t>Twitter International Unlimited Company</t>
-        </is>
-      </c>
-      <c r="E293" s="2036" t="inlineStr">
+      <c r="D296" s="2036" t="inlineStr">
+        <is>
+          <t>Mozilla Corporation</t>
+        </is>
+      </c>
+      <c r="E296" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">EDAP, Code of Practice
 </t>
         </is>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2036" t="inlineStr">
-        <is>
-          <t>Renate Nikolay</t>
-        </is>
-      </c>
-      <c r="B294" s="2033" t="inlineStr">
-        <is>
-          <t>20/01/2021</t>
-        </is>
-      </c>
-      <c r="C294" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D294" s="2036" t="inlineStr">
-        <is>
-          <t>Vodafone Belgium SA</t>
-        </is>
-      </c>
-      <c r="E294" s="2036" t="inlineStr">
-        <is>
-          <t>Data protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="2036" t="inlineStr">
-        <is>
-          <t>Monika Ladmanova, Simona Constantin</t>
-        </is>
-      </c>
-      <c r="B295" s="2033" t="inlineStr">
-        <is>
-          <t>19/01/2021</t>
-        </is>
-      </c>
-      <c r="C295" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D295" s="2036" t="inlineStr">
-        <is>
-          <t>Center for Reproductive Rights, Inc.</t>
-        </is>
-      </c>
-      <c r="E295" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rule of law and human rights concerns in Poland
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2036" t="inlineStr">
-        <is>
-          <t>Daniel Braun</t>
-        </is>
-      </c>
-      <c r="B296" s="2033" t="inlineStr">
-        <is>
-          <t>19/01/2021</t>
-        </is>
-      </c>
-      <c r="C296" s="2036" t="inlineStr">
-        <is>
-          <t>Videoconference</t>
-        </is>
-      </c>
-      <c r="D296" s="2036" t="inlineStr">
-        <is>
-          <t>Mozilla Corporation</t>
-        </is>
-      </c>
-      <c r="E296" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EDAP, Code of Practice
-</t>
-        </is>
-      </c>
-    </row>
     <row r="297">
       <c r="A297" s="2036" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
     <row r="306">
       <c r="A306" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Renate Nikolay</t>
+          <t>Renate Nikolay, Wojtek Talko</t>
         </is>
       </c>
       <c r="B306" s="2033" t="inlineStr">
@@ -15464,7 +15464,7 @@
     <row r="326">
       <c r="A326" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay, Daniel Braun</t>
+          <t>Daniel Braun, Marie Frenay</t>
         </is>
       </c>
       <c r="B326" s="2033" t="inlineStr">
@@ -15519,7 +15519,7 @@
     <row r="328">
       <c r="A328" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Wojtek Talko</t>
+          <t>Wojtek Talko, Daniel Braun</t>
         </is>
       </c>
       <c r="B328" s="2033" t="inlineStr">
@@ -15602,7 +15602,7 @@
     <row r="331">
       <c r="A331" s="2036" t="inlineStr">
         <is>
-          <t>Kevin O'Connell, Simona Constantin</t>
+          <t>Simona Constantin, Kevin O'Connell</t>
         </is>
       </c>
       <c r="B331" s="2033" t="inlineStr">
@@ -15657,7 +15657,7 @@
     <row r="333">
       <c r="A333" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay, Monika Ladmanova</t>
+          <t>Monika Ladmanova, Marie Frenay</t>
         </is>
       </c>
       <c r="B333" s="2033" t="inlineStr">
@@ -15685,59 +15685,59 @@
     <row r="334">
       <c r="A334" s="2036" t="inlineStr">
         <is>
+          <t>Renate Nikolay</t>
+        </is>
+      </c>
+      <c r="B334" s="2033" t="inlineStr">
+        <is>
+          <t>02/09/2020</t>
+        </is>
+      </c>
+      <c r="C334" s="2036" t="inlineStr">
+        <is>
+          <t>videoconference</t>
+        </is>
+      </c>
+      <c r="D334" s="2036" t="inlineStr">
+        <is>
+          <t>Microsoft Corporation</t>
+        </is>
+      </c>
+      <c r="E334" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disinformation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2036" t="inlineStr">
+        <is>
           <t>Marie Frenay</t>
         </is>
       </c>
-      <c r="B334" s="2033" t="inlineStr">
+      <c r="B335" s="2033" t="inlineStr">
         <is>
           <t>02/09/2020</t>
         </is>
       </c>
-      <c r="C334" s="2036" t="inlineStr">
+      <c r="C335" s="2036" t="inlineStr">
         <is>
           <t>videoconference</t>
         </is>
       </c>
-      <c r="D334" s="2036" t="inlineStr">
+      <c r="D335" s="2036" t="inlineStr">
         <is>
           <t>EUROPE'S MEDIALAB (Fondation EURACTIV)</t>
         </is>
       </c>
-      <c r="E334" s="2036" t="inlineStr">
+      <c r="E335" s="2036" t="inlineStr">
         <is>
           <t xml:space="preserve">European Democracy Action Plan
 </t>
         </is>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2036" t="inlineStr">
-        <is>
-          <t>Renate Nikolay</t>
-        </is>
-      </c>
-      <c r="B335" s="2033" t="inlineStr">
-        <is>
-          <t>02/09/2020</t>
-        </is>
-      </c>
-      <c r="C335" s="2036" t="inlineStr">
-        <is>
-          <t>videoconference</t>
-        </is>
-      </c>
-      <c r="D335" s="2036" t="inlineStr">
-        <is>
-          <t>Microsoft Corporation</t>
-        </is>
-      </c>
-      <c r="E335" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Disinformation
-</t>
-        </is>
-      </c>
-    </row>
     <row r="336">
       <c r="A336" s="2036" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
     <row r="341">
       <c r="A341" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin, Monika Ladmanova</t>
+          <t>Monika Ladmanova, Simona Constantin</t>
         </is>
       </c>
       <c r="B341" s="2033" t="inlineStr">
@@ -15985,7 +15985,7 @@
     <row r="345">
       <c r="A345" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Marie Frenay, Simona Constantin</t>
         </is>
       </c>
       <c r="B345" s="2033" t="inlineStr">
@@ -16000,19 +16000,20 @@
       </c>
       <c r="D345" s="2036" t="inlineStr">
         <is>
-          <t>Stichting Free Press Unlimited, Europäisches Zentrum für Presse- und Medienfreiheit, ARTICLE 19, International Press Institute</t>
+          <t>Europäisches Zentrum für Presse- und Medienfreiheit</t>
         </is>
       </c>
       <c r="E345" s="2036" t="inlineStr">
         <is>
-          <t>Broad introduction to Media Freedom Rapid Response</t>
+          <t xml:space="preserve">“Media Freedom Rapid Response” project
+</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay, Simona Constantin</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B346" s="2033" t="inlineStr">
@@ -16027,13 +16028,12 @@
       </c>
       <c r="D346" s="2036" t="inlineStr">
         <is>
-          <t>Europäisches Zentrum für Presse- und Medienfreiheit</t>
+          <t>Stichting Free Press Unlimited, Europäisches Zentrum für Presse- und Medienfreiheit, ARTICLE 19, International Press Institute</t>
         </is>
       </c>
       <c r="E346" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve">“Media Freedom Rapid Response” project
-</t>
+          <t>Broad introduction to Media Freedom Rapid Response</t>
         </is>
       </c>
     </row>
@@ -16094,7 +16094,7 @@
     <row r="349">
       <c r="A349" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Wojtek Talko</t>
+          <t>Wojtek Talko, Daniel Braun</t>
         </is>
       </c>
       <c r="B349" s="2033" t="inlineStr">
@@ -16121,7 +16121,7 @@
     <row r="350">
       <c r="A350" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Monika Ladmanova, Daniel Braun</t>
+          <t>Wojtek Talko, Daniel Braun, Monika Ladmanova</t>
         </is>
       </c>
       <c r="B350" s="2033" t="inlineStr">
@@ -16202,7 +16202,7 @@
     <row r="353">
       <c r="A353" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B353" s="2033" t="inlineStr">
@@ -16217,19 +16217,19 @@
       </c>
       <c r="D353" s="2036" t="inlineStr">
         <is>
-          <t>EUROPE'S MEDIALAB (Fondation EURACTIV)</t>
+          <t>Committee to Protect Journalists</t>
         </is>
       </c>
       <c r="E353" s="2036" t="inlineStr">
         <is>
-          <t>Support to media at COVID times</t>
+          <t>Protecting journalists and freedom of expression</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Renate Nikolay</t>
         </is>
       </c>
       <c r="B354" s="2033" t="inlineStr">
@@ -16244,12 +16244,12 @@
       </c>
       <c r="D354" s="2036" t="inlineStr">
         <is>
-          <t>Committee to Protect Journalists</t>
+          <t>EUROPE'S MEDIALAB (Fondation EURACTIV)</t>
         </is>
       </c>
       <c r="E354" s="2036" t="inlineStr">
         <is>
-          <t>Protecting journalists and freedom of expression</t>
+          <t>Support to media at COVID times</t>
         </is>
       </c>
     </row>
@@ -16283,7 +16283,7 @@
     <row r="356">
       <c r="A356" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Wojtek Talko</t>
+          <t>Wojtek Talko, Daniel Braun</t>
         </is>
       </c>
       <c r="B356" s="2033" t="inlineStr">
@@ -16310,7 +16310,7 @@
     <row r="357">
       <c r="A357" s="2036" t="inlineStr">
         <is>
-          <t>Eduard Hulicius, Daniel Braun</t>
+          <t>Daniel Braun, Eduard Hulicius</t>
         </is>
       </c>
       <c r="B357" s="2033" t="inlineStr">
@@ -16418,7 +16418,7 @@
     <row r="361">
       <c r="A361" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay, Simona Constantin</t>
+          <t>Monika Ladmanova</t>
         </is>
       </c>
       <c r="B361" s="2033" t="inlineStr">
@@ -16433,19 +16433,19 @@
       </c>
       <c r="D361" s="2036" t="inlineStr">
         <is>
-          <t>Stichting Free Press Unlimited, International Federation of Journalists, European Federation of Journalists, Europäisches Zentrum für Presse- und Medienfreiheit, Association of European Journalists, Reporters sans frontières, Committee to Protect Journalists, International Press Institute</t>
+          <t>Open Society European Policy Institute</t>
         </is>
       </c>
       <c r="E361" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Freedom of press and rights of journalists  </t>
+          <t xml:space="preserve"> Roma inclusion, impact of COVID19 crisis on Roma</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova</t>
+          <t>Marie Frenay, Simona Constantin</t>
         </is>
       </c>
       <c r="B362" s="2033" t="inlineStr">
@@ -16460,12 +16460,12 @@
       </c>
       <c r="D362" s="2036" t="inlineStr">
         <is>
-          <t>Open Society European Policy Institute</t>
+          <t>Stichting Free Press Unlimited, International Federation of Journalists, European Federation of Journalists, Europäisches Zentrum für Presse- und Medienfreiheit, Association of European Journalists, Reporters sans frontières, Committee to Protect Journalists, International Press Institute</t>
         </is>
       </c>
       <c r="E362" s="2036" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roma inclusion, impact of COVID19 crisis on Roma</t>
+          <t xml:space="preserve"> Freedom of press and rights of journalists  </t>
         </is>
       </c>
     </row>
@@ -16499,7 +16499,7 @@
     <row r="364">
       <c r="A364" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin, Marie Frenay</t>
+          <t>Daniel Braun, Renate Nikolay, Eduard Hulicius, Wojtek Talko, Marie Frenay, Monika Ladmanova, Simona Constantin, Kevin O'Connell</t>
         </is>
       </c>
       <c r="B364" s="2033" t="inlineStr">
@@ -16514,19 +16514,19 @@
       </c>
       <c r="D364" s="2036" t="inlineStr">
         <is>
-          <t>European Federation of Journalists</t>
+          <t>Twitter International Unlimited Company, Microsoft Corporation, Meta Platforms Ireland Limited and its various subsidiaries, LinkedIn Ireland, Mozilla Corporation, DOT Europe, Google</t>
         </is>
       </c>
       <c r="E364" s="2036" t="inlineStr">
         <is>
-          <t>Media freedom/COVID-19</t>
+          <t>Disinformation/COVID-19</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin, Marie Frenay, Monika Ladmanova, Daniel Braun, Kevin O'Connell, Renate Nikolay, Wojtek Talko, Eduard Hulicius</t>
+          <t>Simona Constantin, Marie Frenay</t>
         </is>
       </c>
       <c r="B365" s="2033" t="inlineStr">
@@ -16541,12 +16541,12 @@
       </c>
       <c r="D365" s="2036" t="inlineStr">
         <is>
-          <t>Twitter International Unlimited Company, Microsoft Corporation, Meta Platforms Ireland Limited and its various subsidiaries, LinkedIn Ireland, Mozilla Corporation, DOT Europe, Google</t>
+          <t>European Federation of Journalists</t>
         </is>
       </c>
       <c r="E365" s="2036" t="inlineStr">
         <is>
-          <t>Disinformation/COVID-19</t>
+          <t>Media freedom/COVID-19</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
     <row r="370">
       <c r="A370" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Renate Nikolay, Daniel Braun, Wojtek Talko</t>
         </is>
       </c>
       <c r="B370" s="2033" t="inlineStr">
@@ -16676,19 +16676,19 @@
       </c>
       <c r="D370" s="2036" t="inlineStr">
         <is>
-          <t>EuroCommerce</t>
+          <t>Twitter International Unlimited Company, Microsoft Corporation, Meta Platforms Ireland Limited and its various subsidiaries, Google</t>
         </is>
       </c>
       <c r="E370" s="2036" t="inlineStr">
         <is>
-          <t>Dual quality</t>
+          <t>Disinfromation, COVID-19</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun, Wojtek Talko, Renate Nikolay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B371" s="2033" t="inlineStr">
@@ -16703,12 +16703,12 @@
       </c>
       <c r="D371" s="2036" t="inlineStr">
         <is>
-          <t>Twitter International Unlimited Company, Microsoft Corporation, Meta Platforms Ireland Limited and its various subsidiaries, Google</t>
+          <t>EuroCommerce</t>
         </is>
       </c>
       <c r="E371" s="2036" t="inlineStr">
         <is>
-          <t>Disinfromation, COVID-19</t>
+          <t>Dual quality</t>
         </is>
       </c>
     </row>
@@ -16742,7 +16742,7 @@
     <row r="373">
       <c r="A373" s="2036" t="inlineStr">
         <is>
-          <t>Simona Constantin, Renate Nikolay, Monika Ladmanova</t>
+          <t>Monika Ladmanova, Renate Nikolay, Simona Constantin</t>
         </is>
       </c>
       <c r="B373" s="2033" t="inlineStr">
@@ -16850,7 +16850,7 @@
     <row r="377">
       <c r="A377" s="2036" t="inlineStr">
         <is>
-          <t>Renate Nikolay, Marie Frenay</t>
+          <t>Marie Frenay, Renate Nikolay</t>
         </is>
       </c>
       <c r="B377" s="2033" t="inlineStr">
@@ -16877,7 +16877,7 @@
     <row r="378">
       <c r="A378" s="2036" t="inlineStr">
         <is>
-          <t>Eduard Hulicius, Daniel Braun</t>
+          <t>Daniel Braun, Eduard Hulicius</t>
         </is>
       </c>
       <c r="B378" s="2033" t="inlineStr">
@@ -16904,7 +16904,7 @@
     <row r="379">
       <c r="A379" s="2036" t="inlineStr">
         <is>
-          <t>Wojtek Talko, Daniel Braun, Renate Nikolay</t>
+          <t>Renate Nikolay, Wojtek Talko, Daniel Braun</t>
         </is>
       </c>
       <c r="B379" s="2033" t="inlineStr">
@@ -17066,7 +17066,7 @@
     <row r="385">
       <c r="A385" s="2036" t="inlineStr">
         <is>
-          <t>Daniel Braun</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B385" s="2033" t="inlineStr">
@@ -17081,19 +17081,19 @@
       </c>
       <c r="D385" s="2036" t="inlineStr">
         <is>
-          <t>Twitter International Unlimited Company</t>
+          <t>Netflix International B.V.</t>
         </is>
       </c>
       <c r="E385" s="2036" t="inlineStr">
         <is>
-          <t>Disinformation, Fake news</t>
+          <t>Media freedom</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Daniel Braun</t>
         </is>
       </c>
       <c r="B386" s="2033" t="inlineStr">
@@ -17108,12 +17108,12 @@
       </c>
       <c r="D386" s="2036" t="inlineStr">
         <is>
-          <t>Netflix International B.V.</t>
+          <t>Twitter International Unlimited Company</t>
         </is>
       </c>
       <c r="E386" s="2036" t="inlineStr">
         <is>
-          <t>Media freedom</t>
+          <t>Disinformation, Fake news</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
     <row r="388">
       <c r="A388" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova, Kevin O'Connell</t>
+          <t>Wojtek Talko, Daniel Braun</t>
         </is>
       </c>
       <c r="B388" s="2033" t="inlineStr">
@@ -17162,10 +17162,37 @@
       </c>
       <c r="D388" s="2036" t="inlineStr">
         <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="E388" s="2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC digital priorities </t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2036" t="inlineStr">
+        <is>
+          <t>Kevin O'Connell, Monika Ladmanova</t>
+        </is>
+      </c>
+      <c r="B389" s="2033" t="inlineStr">
+        <is>
+          <t>04/02/2020</t>
+        </is>
+      </c>
+      <c r="C389" s="2036" t="inlineStr">
+        <is>
+          <t>Brussels, Belgium</t>
+        </is>
+      </c>
+      <c r="D389" s="2036" t="inlineStr">
+        <is>
           <t>Open Government Partnership Secretariat</t>
         </is>
       </c>
-      <c r="E388" s="2036" t="inlineStr">
+      <c r="E389" s="2036" t="inlineStr">
         <is>
           <t>European Democracy Action Plan
 Transparency
@@ -17174,37 +17201,10 @@
         </is>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2036" t="inlineStr">
-        <is>
-          <t>Wojtek Talko, Daniel Braun</t>
-        </is>
-      </c>
-      <c r="B389" s="2033" t="inlineStr">
-        <is>
-          <t>04/02/2020</t>
-        </is>
-      </c>
-      <c r="C389" s="2036" t="inlineStr">
-        <is>
-          <t>Brussels, Belgium</t>
-        </is>
-      </c>
-      <c r="D389" s="2036" t="inlineStr">
-        <is>
-          <t>Google</t>
-        </is>
-      </c>
-      <c r="E389" s="2036" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EC digital priorities </t>
-        </is>
-      </c>
-    </row>
     <row r="390">
       <c r="A390" s="2036" t="inlineStr">
         <is>
-          <t>Monika Ladmanova</t>
+          <t>Marie Frenay</t>
         </is>
       </c>
       <c r="B390" s="2033" t="inlineStr">
@@ -17219,19 +17219,19 @@
       </c>
       <c r="D390" s="2036" t="inlineStr">
         <is>
-          <t>Open Society European Policy Institute</t>
+          <t>Stichting Free Press Unlimited</t>
         </is>
       </c>
       <c r="E390" s="2036" t="inlineStr">
         <is>
-          <t>European Democracy Action Plan</t>
+          <t>Media freedom</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay</t>
+          <t>Monika Ladmanova</t>
         </is>
       </c>
       <c r="B391" s="2033" t="inlineStr">
@@ -17246,19 +17246,19 @@
       </c>
       <c r="D391" s="2036" t="inlineStr">
         <is>
-          <t>Stichting Free Press Unlimited</t>
+          <t>Open Society European Policy Institute</t>
         </is>
       </c>
       <c r="E391" s="2036" t="inlineStr">
         <is>
-          <t>Media freedom</t>
+          <t>European Democracy Action Plan</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2036" t="inlineStr">
         <is>
-          <t>Marie Frenay, Daniel Braun, Monika Ladmanova</t>
+          <t>Eduard Hulicius</t>
         </is>
       </c>
       <c r="B392" s="2033" t="inlineStr">
@@ -17273,40 +17273,40 @@
       </c>
       <c r="D392" s="2036" t="inlineStr">
         <is>
+          <t>Rasmussen Global</t>
+        </is>
+      </c>
+      <c r="E392" s="2036" t="inlineStr">
+        <is>
+          <t>European action plan on Democracy; Conference on future of EU</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2036" t="inlineStr">
+        <is>
+          <t>Daniel Braun, Marie Frenay, Monika Ladmanova</t>
+        </is>
+      </c>
+      <c r="B393" s="2033" t="inlineStr">
+        <is>
+          <t>31/01/2020</t>
+        </is>
+      </c>
+      <c r="C393" s="2036" t="inlineStr">
+        <is>
+          <t>Brussels, Belgium</t>
+        </is>
+      </c>
+      <c r="D393" s="2036" t="inlineStr">
+        <is>
           <t>Centre for Democracy &amp; Technology, Europe</t>
         </is>
       </c>
-      <c r="E392" s="2036" t="inlineStr">
+      <c r="E393" s="2036" t="inlineStr">
         <is>
           <t>Political advertising and European Democracy Action Plan
 Digital policies and strategies</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="2036" t="inlineStr">
-        <is>
-          <t>Eduard Hulicius</t>
-        </is>
-      </c>
-      <c r="B393" s="2033" t="inlineStr">
-        <is>
-          <t>31/01/2020</t>
-        </is>
-      </c>
-      <c r="C393" s="2036" t="inlineStr">
-        <is>
-          <t>Brussels, Belgium</t>
-        </is>
-      </c>
-      <c r="D393" s="2036" t="inlineStr">
-        <is>
-          <t>Rasmussen Global</t>
-        </is>
-      </c>
-      <c r="E393" s="2036" t="inlineStr">
-        <is>
-          <t>European action plan on Democracy; Conference on future of EU</t>
         </is>
       </c>
     </row>
